--- a/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
+++ b/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="192" windowWidth="19392" windowHeight="10992" tabRatio="601"/>
+    <workbookView xWindow="-210" yWindow="195" windowWidth="19395" windowHeight="10995" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Risk analysis" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="206">
   <si>
     <t>Failure mode</t>
   </si>
@@ -371,35 +371,6 @@
 S:5</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data transmission fails </t>
-  </si>
-  <si>
-    <t>OS / network / hardware</t>
-  </si>
-  <si>
-    <t>SP fails</t>
-  </si>
-  <si>
-    <t>No result</t>
-  </si>
-  <si>
-    <t>P:1
-D:1
-S:2</t>
-  </si>
-  <si>
-    <t>DAS platform stateless (just reset)</t>
-  </si>
-  <si>
-    <t>wrong API configured</t>
-  </si>
-  <si>
-    <t>config error (lib version)</t>
-  </si>
-  <si>
     <t>incorrect results calculated</t>
   </si>
   <si>
@@ -411,62 +382,14 @@
 S:5</t>
   </si>
   <si>
-    <t>development deployment / procedural and other instrument QC tests</t>
-  </si>
-  <si>
-    <t>config check. Known input output test</t>
-  </si>
-  <si>
-    <t>input data</t>
-  </si>
-  <si>
-    <t>module used with wrong workflow</t>
-  </si>
-  <si>
     <t>P:2
 D:2
 S:5</t>
   </si>
   <si>
-    <t>runtime</t>
-  </si>
-  <si>
-    <t>standardize on workflow and train the user</t>
-  </si>
-  <si>
-    <t>exception handling</t>
-  </si>
-  <si>
-    <t>reuiqred exception not raised</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
-    <t>code review / unit testing</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>DAS platform sends kinase activity profile (req2)</t>
-  </si>
-  <si>
-    <t>Exceptions transmitted trough the DAS platform (req-5)</t>
-  </si>
-  <si>
-    <t>other instrumentQC tests, i.e.maintenance &amp; calibration</t>
-  </si>
-  <si>
-    <t>code review / unit testing / Integration testing etc. as applicable</t>
-  </si>
-  <si>
-    <t>wrong chip used</t>
-  </si>
-  <si>
-    <t>user mix-up</t>
-  </si>
-  <si>
     <t>REQ014A1</t>
   </si>
   <si>
@@ -536,25 +459,7 @@
     <t>calculations wrongly coded</t>
   </si>
   <si>
-    <t>PTK product</t>
-  </si>
-  <si>
     <t>18-Feb-2020</t>
-  </si>
-  <si>
-    <t>corrupts the data</t>
-  </si>
-  <si>
-    <t>wrong input data, does not conform to spec</t>
-  </si>
-  <si>
-    <t>training/ add to work instruction</t>
-  </si>
-  <si>
-    <t>Incorrect results when wrong chip type is used</t>
-  </si>
-  <si>
-    <t>add check on barcode, add check  on included peptides</t>
   </si>
   <si>
     <t>concordance result</t>
@@ -709,6 +614,45 @@
   </si>
   <si>
     <t>software module dasrunqc</t>
+  </si>
+  <si>
+    <t>03A</t>
+  </si>
+  <si>
+    <t>programming error</t>
+  </si>
+  <si>
+    <t>input/putput testing</t>
+  </si>
+  <si>
+    <t>unit test</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>11A and 11B</t>
+  </si>
+  <si>
+    <t>014A and 014B</t>
+  </si>
+  <si>
+    <t>017A1</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>output has incorrect format</t>
+  </si>
+  <si>
+    <t>unit testing</t>
+  </si>
+  <si>
+    <t>add a unit test</t>
+  </si>
+  <si>
+    <t>018A11, 018A12, 018A13,018A16</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1381,6 +1325,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,8 +1441,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>151406</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>132356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1829,32 +1794,32 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="15" customWidth="1"/>
-    <col min="14" max="15" width="8.109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="15" customWidth="1"/>
+    <col min="14" max="15" width="8.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="15" customWidth="1"/>
     <col min="17" max="17" width="10" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="15"/>
+    <col min="18" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1831,7 @@
       <c r="F1" s="102"/>
       <c r="G1" s="102"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="110" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1841,7 @@
       </c>
       <c r="E2" s="111"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
@@ -1886,23 +1851,23 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="54" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="28"/>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1883,7 @@
       <c r="H6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="2:10" ht="26.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1898,7 @@
       <c r="H7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="2:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="64" t="s">
         <v>10</v>
       </c>
@@ -1947,19 +1912,19 @@
       <c r="H8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="98" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="F9" s="40"/>
       <c r="H9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="22"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1967,14 +1932,14 @@
       <c r="H10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D11" s="21"/>
       <c r="F11" s="40"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D12" s="18" t="s">
         <v>109</v>
       </c>
@@ -1983,7 +1948,7 @@
       <c r="H12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
@@ -1995,7 +1960,7 @@
       <c r="H13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D14" s="21" t="s">
         <v>111</v>
       </c>
@@ -2004,47 +1969,47 @@
       <c r="H14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D15" s="100"/>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
       <c r="H17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>104</v>
       </c>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2017,7 @@
       <c r="D22" s="18"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
@@ -2061,13 +2026,13 @@
       <c r="I23" s="20"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="I24" s="18"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2041,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>16</v>
       </c>
@@ -2085,32 +2050,32 @@
       <c r="I26" s="19"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="31" t="s">
         <v>66</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I30" s="19"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="31" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2083,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
         <v>60</v>
       </c>
@@ -2127,7 +2092,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="s">
         <v>96</v>
       </c>
@@ -2136,12 +2101,12 @@
       <c r="I33" s="16"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="s">
         <v>63</v>
       </c>
@@ -2149,7 +2114,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B36" s="65" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2122,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B37" s="65" t="s">
         <v>61</v>
       </c>
@@ -2166,14 +2131,14 @@
       <c r="I37" s="16"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -2186,7 +2151,7 @@
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2162,7 @@
       <c r="G40" s="16"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>9</v>
       </c>
@@ -2250,82 +2215,63 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="51">
-        <v>1</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>114</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B42" s="53">
+        <v>2</v>
+      </c>
+      <c r="C42" s="55"/>
       <c r="D42" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="49">
-        <v>2</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>120</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="51"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
       <c r="N42" s="104"/>
       <c r="O42" s="51"/>
       <c r="P42" s="50"/>
-      <c r="Q42" s="50">
-        <v>2</v>
-      </c>
+      <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" spans="1:18" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="51">
-        <f>1+A42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" s="46" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I43" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -2334,198 +2280,126 @@
         <v>5</v>
       </c>
       <c r="N43" s="104"/>
-      <c r="O43" s="47" t="s">
-        <v>127</v>
-      </c>
+      <c r="O43" s="47"/>
       <c r="P43" s="50"/>
-      <c r="Q43" s="50">
-        <v>5</v>
-      </c>
+      <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="51">
         <f>1+A43</f>
-        <v>3</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>114</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B44" s="55">
+        <v>5</v>
+      </c>
+      <c r="C44" s="58"/>
       <c r="D44" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="57">
         <v>10</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="J44" s="56"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="L44" s="48"/>
       <c r="M44" s="50"/>
       <c r="N44" s="104"/>
       <c r="O44" s="58"/>
       <c r="P44" s="50"/>
-      <c r="Q44" s="50">
-        <v>5</v>
-      </c>
+      <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
     </row>
-    <row r="45" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="51">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>128</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C45" s="58"/>
       <c r="D45" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="57">
-        <v>20</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="50">
-        <v>10</v>
-      </c>
-      <c r="N45" s="104" t="s">
-        <v>171</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="58"/>
       <c r="P45" s="50"/>
-      <c r="Q45" s="50">
-        <v>10</v>
-      </c>
+      <c r="Q45" s="50"/>
       <c r="R45" s="50"/>
     </row>
-    <row r="46" spans="1:18" ht="81.599999999999994" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="60">
-        <v>10</v>
-      </c>
-      <c r="J46" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="50">
-        <v>5</v>
-      </c>
-      <c r="N46" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="O46" s="58" t="s">
-        <v>141</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C46" s="61"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="50"/>
-      <c r="Q46" s="50">
-        <v>5</v>
-      </c>
+      <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="51">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I47" s="57">
         <v>10</v>
       </c>
       <c r="J47" s="57" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="K47" s="58" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L47" s="48" t="s">
         <v>113</v>
@@ -2533,60 +2407,90 @@
       <c r="M47" s="50">
         <v>5</v>
       </c>
-      <c r="N47" s="104" t="s">
-        <v>137</v>
-      </c>
+      <c r="N47" s="104"/>
       <c r="O47" s="50"/>
       <c r="P47" s="50"/>
-      <c r="Q47" s="50">
-        <v>5</v>
-      </c>
+      <c r="Q47" s="50"/>
       <c r="R47" s="109"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="51">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B48" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="57">
+        <v>20</v>
+      </c>
+      <c r="J48" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="118">
+        <v>5</v>
+      </c>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="51">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I49" s="49">
         <v>20</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K49" s="47" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L49" s="48" t="s">
         <v>113</v>
@@ -2595,48 +2499,48 @@
         <v>5</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O49" s="50" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="P49" s="50"/>
       <c r="Q49" s="50"/>
     </row>
-    <row r="50" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="51">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G50" s="58" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I50" s="49">
         <v>20</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K50" s="47" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L50" s="48" t="s">
         <v>113</v>
@@ -2645,27 +2549,27 @@
         <v>5</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O50" s="50" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
     </row>
-    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="51">
         <f>1+A50</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
@@ -2685,19 +2589,19 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="50"/>
     </row>
-    <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A52" s="51">
         <f>1+A51</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
@@ -2717,19 +2621,19 @@
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
     </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A53" s="51">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
@@ -2749,19 +2653,19 @@
       <c r="P53" s="50"/>
       <c r="Q53" s="50"/>
     </row>
-    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A54" s="51">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
@@ -2781,15 +2685,15 @@
       <c r="P54" s="50"/>
       <c r="Q54" s="50"/>
     </row>
-    <row r="55" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A55" s="51">
         <v>1</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -2810,39 +2714,39 @@
       <c r="P55" s="50"/>
       <c r="Q55" s="50"/>
     </row>
-    <row r="56" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A56" s="51">
         <v>1</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I56" s="49">
         <v>20</v>
       </c>
       <c r="J56" s="49" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K56" s="47" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L56" s="48" t="s">
         <v>113</v>
@@ -2857,15 +2761,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A57" s="51">
         <v>1</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
@@ -2886,15 +2790,15 @@
       <c r="P57" s="50"/>
       <c r="Q57" s="50"/>
     </row>
-    <row r="58" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A58" s="51">
         <v>1</v>
       </c>
       <c r="B58" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="53" t="s">
         <v>158</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>189</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
@@ -2915,85 +2819,85 @@
       <c r="P58" s="50"/>
       <c r="Q58" s="50"/>
     </row>
-    <row r="59" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A59" s="51">
         <v>1</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I59" s="49">
         <v>6</v>
       </c>
       <c r="J59" s="49" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K59" s="47" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="L59" s="48" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M59" s="50">
         <v>3</v>
       </c>
       <c r="N59" s="50"/>
       <c r="O59" s="50" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="P59" s="50"/>
       <c r="Q59" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A60" s="51">
         <v>1</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H60" s="49">
         <v>20</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>113</v>
@@ -3009,22 +2913,22 @@
       </c>
       <c r="Q60" s="50"/>
     </row>
-    <row r="61" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A61" s="51">
         <v>1</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="45" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G61" s="46"/>
       <c r="H61" s="47" t="s">
@@ -3042,39 +2946,39 @@
       <c r="P61" s="50"/>
       <c r="Q61" s="50"/>
     </row>
-    <row r="62" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A62" s="51">
         <v>1</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I62" s="49">
         <v>20</v>
       </c>
       <c r="J62" s="48" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K62" s="47" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L62" s="48" t="s">
         <v>113</v>
@@ -3089,37 +2993,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="51">
         <v>1</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F63" s="45"/>
       <c r="G63" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H63" s="47" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I63" s="49">
         <v>10</v>
       </c>
       <c r="J63" s="49" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="K63" s="47" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L63" s="48" t="s">
         <v>113</v>
@@ -3129,44 +3033,44 @@
       </c>
       <c r="N63" s="50"/>
       <c r="O63" s="50" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="P63" s="50"/>
       <c r="Q63" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="53" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H64" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I64" s="49">
         <v>20</v>
       </c>
       <c r="J64" s="49" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K64" s="47" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L64" s="48" t="s">
         <v>113</v>
@@ -3179,15 +3083,15 @@
       <c r="P64" s="50"/>
       <c r="Q64" s="50"/>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="51">
         <v>1</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
@@ -3208,39 +3112,39 @@
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
     </row>
-    <row r="66" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A66" s="51">
         <v>1</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F66" s="45" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I66" s="49">
         <v>20</v>
       </c>
       <c r="J66" s="48" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K66" s="47" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L66" s="48" t="s">
         <v>113</v>
@@ -3255,39 +3159,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A67" s="51">
         <v>1</v>
       </c>
       <c r="B67" s="53" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G67" s="46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I67" s="49">
         <v>20</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K67" s="47" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>113</v>
@@ -3302,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A68" s="51">
         <v>1</v>
       </c>
@@ -3327,7 +3231,7 @@
       <c r="P68" s="50"/>
       <c r="Q68" s="50"/>
     </row>
-    <row r="69" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A69" s="51">
         <v>1</v>
       </c>
@@ -3352,7 +3256,7 @@
       <c r="P69" s="50"/>
       <c r="Q69" s="50"/>
     </row>
-    <row r="70" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A70" s="51">
         <v>1</v>
       </c>
@@ -3377,7 +3281,7 @@
       <c r="P70" s="50"/>
       <c r="Q70" s="50"/>
     </row>
-    <row r="71" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A71" s="51">
         <v>36</v>
       </c>
@@ -3402,7 +3306,7 @@
       <c r="P71" s="50"/>
       <c r="Q71" s="50"/>
     </row>
-    <row r="72" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A72" s="51">
         <v>37</v>
       </c>
@@ -3427,7 +3331,7 @@
       <c r="P72" s="50"/>
       <c r="Q72" s="50"/>
     </row>
-    <row r="73" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A73" s="51">
         <v>38</v>
       </c>
@@ -3452,7 +3356,7 @@
       <c r="P73" s="50"/>
       <c r="Q73" s="50"/>
     </row>
-    <row r="74" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A74" s="51">
         <v>39</v>
       </c>
@@ -3477,7 +3381,7 @@
       <c r="P74" s="50"/>
       <c r="Q74" s="50"/>
     </row>
-    <row r="75" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A75" s="51">
         <v>40</v>
       </c>
@@ -3502,7 +3406,7 @@
       <c r="P75" s="50"/>
       <c r="Q75" s="50"/>
     </row>
-    <row r="76" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A76" s="51">
         <v>41</v>
       </c>
@@ -3527,7 +3431,7 @@
       <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
     </row>
-    <row r="77" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A77" s="51">
         <v>42</v>
       </c>
@@ -3552,7 +3456,7 @@
       <c r="P77" s="50"/>
       <c r="Q77" s="50"/>
     </row>
-    <row r="78" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A78" s="51">
         <v>43</v>
       </c>
@@ -3577,7 +3481,7 @@
       <c r="P78" s="50"/>
       <c r="Q78" s="50"/>
     </row>
-    <row r="79" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A79" s="51">
         <v>44</v>
       </c>
@@ -3602,7 +3506,7 @@
       <c r="P79" s="50"/>
       <c r="Q79" s="50"/>
     </row>
-    <row r="80" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A80" s="51">
         <v>45</v>
       </c>
@@ -3627,7 +3531,7 @@
       <c r="P80" s="50"/>
       <c r="Q80" s="50"/>
     </row>
-    <row r="81" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A81" s="51">
         <v>46</v>
       </c>
@@ -3652,7 +3556,7 @@
       <c r="P81" s="50"/>
       <c r="Q81" s="50"/>
     </row>
-    <row r="82" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A82" s="51">
         <v>47</v>
       </c>
@@ -3677,7 +3581,7 @@
       <c r="P82" s="50"/>
       <c r="Q82" s="50"/>
     </row>
-    <row r="83" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A83" s="51">
         <v>48</v>
       </c>
@@ -3702,7 +3606,7 @@
       <c r="P83" s="50"/>
       <c r="Q83" s="50"/>
     </row>
-    <row r="84" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A84" s="51">
         <v>49</v>
       </c>
@@ -3727,7 +3631,7 @@
       <c r="P84" s="50"/>
       <c r="Q84" s="50"/>
     </row>
-    <row r="85" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A85" s="51">
         <v>6</v>
       </c>
@@ -3779,23 +3683,23 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="88"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
         <v>69</v>
       </c>
@@ -3804,7 +3708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="77">
         <v>5</v>
       </c>
@@ -3818,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="77">
         <v>4</v>
       </c>
@@ -3832,7 +3736,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="77">
         <v>3</v>
       </c>
@@ -3843,7 +3747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="77">
         <v>2</v>
       </c>
@@ -3854,7 +3758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="77">
         <v>1</v>
       </c>
@@ -3868,7 +3772,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>112</v>
       </c>
@@ -3876,15 +3780,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>69</v>
       </c>
@@ -3893,7 +3797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="77">
         <v>5</v>
       </c>
@@ -3915,7 +3819,7 @@
       <c r="M11" s="112"/>
       <c r="N11" s="112"/>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77">
         <v>4</v>
       </c>
@@ -3937,7 +3841,7 @@
       <c r="M12" s="113"/>
       <c r="N12" s="113"/>
     </row>
-    <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="77">
         <v>3</v>
       </c>
@@ -3959,7 +3863,7 @@
       <c r="M13" s="113"/>
       <c r="N13" s="113"/>
     </row>
-    <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77">
         <v>2</v>
       </c>
@@ -3981,7 +3885,7 @@
       <c r="M14" s="113"/>
       <c r="N14" s="113"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="77">
         <v>1</v>
       </c>
@@ -3992,12 +3896,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>69</v>
       </c>
@@ -4005,7 +3909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="90">
         <v>2</v>
       </c>
@@ -4013,7 +3917,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="91">
         <v>1</v>
       </c>
@@ -4021,130 +3925,105 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="F28" s="95"/>
       <c r="G28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F30" s="96"/>
       <c r="G30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F32" s="97"/>
       <c r="G32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="49">
-        <v>2</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>120</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="51"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
       <c r="N42" s="104"/>
       <c r="O42" s="51"/>
       <c r="P42" s="50"/>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>1+A42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I43" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -4153,194 +4032,105 @@
         <v>5</v>
       </c>
       <c r="N43" s="104"/>
-      <c r="O43" s="47" t="s">
-        <v>127</v>
-      </c>
+      <c r="O43" s="47"/>
       <c r="P43" s="50"/>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>1+A43</f>
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H44" s="48"/>
       <c r="I44" s="57">
         <v>10</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="J44" s="56"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="L44" s="48"/>
       <c r="M44" s="50"/>
       <c r="N44" s="104"/>
       <c r="O44" s="58"/>
       <c r="P44" s="50"/>
-      <c r="Q44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="57">
-        <v>20</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="50">
-        <v>10</v>
-      </c>
-      <c r="N45" s="104" t="s">
-        <v>171</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="58"/>
       <c r="P45" s="50"/>
-      <c r="Q45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="60">
-        <v>10</v>
-      </c>
-      <c r="J46" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="50">
-        <v>5</v>
-      </c>
-      <c r="N46" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="O46" s="58" t="s">
-        <v>141</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="50"/>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L47" s="103" t="s">
         <v>113</v>
@@ -4348,53 +4138,86 @@
       <c r="M47">
         <v>5</v>
       </c>
-      <c r="N47" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N47" s="104"/>
+    </row>
+    <row r="48" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B48" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="121">
+        <v>20</v>
+      </c>
+      <c r="J48" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="121">
+        <v>5</v>
+      </c>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="121"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H49" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I49">
         <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L49" s="103" t="s">
         <v>113</v>
@@ -4403,46 +4226,46 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H50" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I50">
         <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L50" s="103" t="s">
         <v>113</v>
@@ -4451,25 +4274,25 @@
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>1+A50</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H51" s="103" t="s">
         <v>25</v>
@@ -4478,98 +4301,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>1+A51</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H56" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I56">
         <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L56" s="103" t="s">
         <v>113</v>
@@ -4581,105 +4404,105 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
         <v>158</v>
       </c>
-      <c r="C58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H59" s="103" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I59">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K59" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="L59" s="103" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H60">
         <v>20</v>
       </c>
       <c r="I60" s="103" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K60" s="103" t="s">
         <v>113</v>
@@ -4691,56 +4514,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H62" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I62">
         <v>20</v>
       </c>
       <c r="J62" s="103" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L62" s="103" t="s">
         <v>113</v>
@@ -4752,36 +4575,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H63" s="103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="K63" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L63" s="103" t="s">
         <v>113</v>
@@ -4790,42 +4613,42 @@
         <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H64" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I64">
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K64" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L64" s="103" t="s">
         <v>113</v>
@@ -4834,50 +4657,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H66" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I66">
         <v>20</v>
       </c>
       <c r="J66" s="103" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L66" s="103" t="s">
         <v>113</v>
@@ -4889,39 +4712,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G67" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H67" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I67">
         <v>20</v>
       </c>
       <c r="J67" s="103" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L67" s="103" t="s">
         <v>113</v>
@@ -4933,22 +4756,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -4978,24 +4801,24 @@
   <dimension ref="A1:Q278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>56</v>
       </c>
@@ -5078,7 +4901,7 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="5" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E9" s="6"/>
       <c r="H9" s="7"/>
@@ -5189,81 +5012,56 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="49">
-        <v>2</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>120</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="51"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
       <c r="N42" s="104"/>
       <c r="O42" s="51"/>
       <c r="P42" s="50"/>
-      <c r="Q42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="61.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f>1+A42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I43" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -5272,194 +5070,105 @@
         <v>5</v>
       </c>
       <c r="N43" s="104"/>
-      <c r="O43" s="47" t="s">
-        <v>127</v>
-      </c>
+      <c r="O43" s="47"/>
       <c r="P43" s="50"/>
-      <c r="Q43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="61.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>1+A43</f>
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H44" s="48"/>
       <c r="I44" s="57">
         <v>10</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="J44" s="56"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="L44" s="48"/>
       <c r="M44" s="50"/>
       <c r="N44" s="104"/>
       <c r="O44" s="58"/>
       <c r="P44" s="50"/>
-      <c r="Q44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="57">
-        <v>20</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="50">
-        <v>10</v>
-      </c>
-      <c r="N45" s="104" t="s">
-        <v>171</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="58"/>
       <c r="P45" s="50"/>
-      <c r="Q45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="61.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="60">
-        <v>10</v>
-      </c>
-      <c r="J46" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="50">
-        <v>5</v>
-      </c>
-      <c r="N46" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="O46" s="58" t="s">
-        <v>141</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="50"/>
-      <c r="Q46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I47" s="8">
         <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>113</v>
@@ -5467,56 +5176,86 @@
       <c r="M47" s="1">
         <v>5</v>
       </c>
-      <c r="N47" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N47" s="104"/>
+    </row>
+    <row r="48" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="123">
+        <v>20</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="4">
+        <v>5</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I49" s="8">
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>113</v>
@@ -5525,46 +5264,46 @@
         <v>5</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I50" s="8">
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>113</v>
@@ -5573,25 +5312,25 @@
         <v>5</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>1+A50</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>25</v>
@@ -5603,16 +5342,16 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>1+A51</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L52" s="1">
         <v>5</v>
@@ -5621,31 +5360,31 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5653,45 +5392,45 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="45.6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I56" s="8">
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>113</v>
@@ -5708,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5719,89 +5458,89 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:17" ht="72" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I59" s="8">
         <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M59" s="1">
         <v>3</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="Q59" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="60" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H60" s="8">
         <v>20</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>113</v>
@@ -5818,51 +5557,51 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="45.6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I62" s="8">
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>113</v>
@@ -5874,36 +5613,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="72" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I63" s="8">
         <v>10</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>113</v>
@@ -5912,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="Q63" s="1">
         <v>5</v>
@@ -5920,34 +5659,34 @@
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I64" s="8">
         <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>113</v>
@@ -5956,50 +5695,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="84" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I66" s="8">
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>113</v>
@@ -6011,39 +5750,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="84" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I67" s="8">
         <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>113</v>
@@ -6094,47 +5833,47 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H167" s="11"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H168" s="11"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H169" s="11"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H170" s="11"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H171" s="11"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H172" s="11"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H173" s="11"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H174" s="11"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H175" s="11"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="H176" s="11"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6153,502 +5892,502 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E178" s="3"/>
       <c r="H178" s="12"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E179" s="3"/>
       <c r="H179" s="12"/>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E180" s="3"/>
       <c r="H180" s="12"/>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E181" s="3"/>
       <c r="H181" s="12"/>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E182" s="3"/>
       <c r="H182" s="12"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E183" s="3"/>
       <c r="H183" s="12"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E184" s="3"/>
       <c r="H184" s="12"/>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E185" s="3"/>
       <c r="H185" s="12"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E186" s="3"/>
       <c r="H186" s="12"/>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E187" s="3"/>
       <c r="H187" s="12"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E188" s="3"/>
       <c r="H188" s="12"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E189" s="3"/>
       <c r="H189" s="12"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E190" s="3"/>
       <c r="H190" s="12"/>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E191" s="3"/>
       <c r="H191" s="12"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E192" s="3"/>
       <c r="H192" s="12"/>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E193" s="3"/>
       <c r="H193" s="12"/>
       <c r="I193" s="10"/>
     </row>
-    <row r="194" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E194" s="3"/>
       <c r="H194" s="12"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E195" s="3"/>
       <c r="H195" s="12"/>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E196" s="3"/>
       <c r="H196" s="12"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E197" s="3"/>
       <c r="H197" s="12"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E198" s="3"/>
       <c r="H198" s="12"/>
       <c r="I198" s="10"/>
     </row>
-    <row r="199" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E199" s="3"/>
       <c r="H199" s="12"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E200" s="3"/>
       <c r="H200" s="12"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E201" s="3"/>
       <c r="H201" s="12"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E202" s="3"/>
       <c r="H202" s="12"/>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E203" s="3"/>
       <c r="H203" s="12"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E204" s="3"/>
       <c r="H204" s="12"/>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E205" s="3"/>
       <c r="H205" s="12"/>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E206" s="3"/>
       <c r="H206" s="12"/>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E207" s="3"/>
       <c r="H207" s="12"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E208" s="3"/>
       <c r="H208" s="12"/>
       <c r="I208" s="10"/>
     </row>
-    <row r="209" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E209" s="3"/>
       <c r="H209" s="12"/>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E210" s="3"/>
       <c r="H210" s="12"/>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E211" s="3"/>
       <c r="H211" s="12"/>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E212" s="3"/>
       <c r="H212" s="12"/>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E213" s="3"/>
       <c r="H213" s="12"/>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E214" s="3"/>
       <c r="H214" s="12"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E215" s="3"/>
       <c r="H215" s="12"/>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E216" s="3"/>
       <c r="H216" s="12"/>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E217" s="3"/>
       <c r="H217" s="12"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E218" s="3"/>
       <c r="H218" s="12"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E219" s="3"/>
       <c r="H219" s="12"/>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E220" s="3"/>
       <c r="H220" s="12"/>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E221" s="3"/>
       <c r="H221" s="12"/>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E222" s="3"/>
       <c r="H222" s="12"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E223" s="3"/>
       <c r="H223" s="12"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E224" s="3"/>
       <c r="H224" s="12"/>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E225" s="3"/>
       <c r="H225" s="12"/>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E226" s="3"/>
       <c r="H226" s="12"/>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E227" s="3"/>
       <c r="H227" s="12"/>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E228" s="3"/>
       <c r="H228" s="12"/>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E229" s="3"/>
       <c r="H229" s="12"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E230" s="3"/>
       <c r="H230" s="12"/>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E231" s="3"/>
       <c r="H231" s="12"/>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E232" s="3"/>
       <c r="H232" s="12"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E233" s="3"/>
       <c r="H233" s="12"/>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E234" s="3"/>
       <c r="H234" s="12"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E235" s="3"/>
       <c r="H235" s="12"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E236" s="3"/>
       <c r="H236" s="12"/>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E237" s="3"/>
       <c r="H237" s="12"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E238" s="3"/>
       <c r="H238" s="12"/>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E239" s="3"/>
       <c r="H239" s="12"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E240" s="3"/>
       <c r="H240" s="12"/>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E241" s="3"/>
       <c r="H241" s="12"/>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E242" s="3"/>
       <c r="H242" s="12"/>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E243" s="3"/>
       <c r="H243" s="12"/>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E244" s="3"/>
       <c r="H244" s="12"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E245" s="3"/>
       <c r="H245" s="12"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E246" s="3"/>
       <c r="H246" s="12"/>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E247" s="3"/>
       <c r="H247" s="12"/>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E248" s="3"/>
       <c r="H248" s="12"/>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E249" s="3"/>
       <c r="H249" s="12"/>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E250" s="3"/>
       <c r="H250" s="12"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E251" s="3"/>
       <c r="H251" s="12"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E252" s="3"/>
       <c r="H252" s="12"/>
       <c r="I252" s="10"/>
     </row>
-    <row r="253" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E253" s="3"/>
       <c r="H253" s="12"/>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E254" s="3"/>
       <c r="H254" s="12"/>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E255" s="3"/>
       <c r="H255" s="12"/>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E256" s="3"/>
       <c r="H256" s="12"/>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E257" s="3"/>
       <c r="H257" s="12"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E258" s="3"/>
       <c r="H258" s="12"/>
       <c r="I258" s="10"/>
     </row>
-    <row r="259" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E259" s="3"/>
       <c r="H259" s="12"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E260" s="3"/>
       <c r="H260" s="12"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E261" s="3"/>
       <c r="H261" s="12"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E262" s="3"/>
       <c r="H262" s="12"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E263" s="3"/>
       <c r="H263" s="12"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E264" s="3"/>
       <c r="H264" s="12"/>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E265" s="3"/>
       <c r="H265" s="12"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E266" s="3"/>
       <c r="H266" s="12"/>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E267" s="3"/>
       <c r="H267" s="12"/>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E268" s="3"/>
       <c r="H268" s="12"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E269" s="3"/>
       <c r="H269" s="12"/>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E270" s="3"/>
       <c r="H270" s="12"/>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E271" s="3"/>
       <c r="H271" s="12"/>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E272" s="3"/>
       <c r="H272" s="12"/>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E273" s="3"/>
       <c r="H273" s="12"/>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E274" s="3"/>
       <c r="H274" s="12"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E275" s="3"/>
       <c r="H275" s="12"/>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E276" s="3"/>
       <c r="H276" s="12"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E277" s="3"/>
       <c r="H277" s="12"/>
       <c r="I277" s="10"/>
@@ -6692,23 +6431,23 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>31</v>
       </c>
@@ -6725,7 +6464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>36</v>
       </c>
@@ -6740,7 +6479,7 @@
       </c>
       <c r="E3" s="70"/>
     </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>37</v>
       </c>
@@ -6755,7 +6494,7 @@
       </c>
       <c r="E4" s="70"/>
     </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>37</v>
       </c>
@@ -6768,7 +6507,7 @@
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
     </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
@@ -6781,7 +6520,7 @@
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
     </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>39</v>
       </c>
@@ -6796,7 +6535,7 @@
       </c>
       <c r="E7" s="70"/>
     </row>
-    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="72" t="s">
@@ -6807,15 +6546,15 @@
       </c>
       <c r="E8" s="72"/>
     </row>
-    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80" t="s">
         <v>40</v>
       </c>
@@ -6830,7 +6569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <v>1</v>
       </c>
@@ -6845,7 +6584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
         <v>1.1000000000000001</v>
       </c>
@@ -6860,7 +6599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="92.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="92.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84">
         <v>1.2</v>
       </c>
@@ -6875,7 +6614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
@@ -6883,97 +6622,72 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
       <c r="D15" s="77"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="79"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="79"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
     </row>
-    <row r="42" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="49">
-        <v>2</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>120</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="51"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
       <c r="N42" s="104"/>
       <c r="O42" s="51"/>
       <c r="P42" s="50"/>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>1+A42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I43" s="49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -6982,194 +6696,105 @@
         <v>5</v>
       </c>
       <c r="N43" s="104"/>
-      <c r="O43" s="47" t="s">
-        <v>127</v>
-      </c>
+      <c r="O43" s="47"/>
       <c r="P43" s="50"/>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>1+A43</f>
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H44" s="48"/>
       <c r="I44" s="57">
         <v>10</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="J44" s="56"/>
       <c r="K44" s="58"/>
-      <c r="L44" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="L44" s="48"/>
       <c r="M44" s="50"/>
       <c r="N44" s="104"/>
       <c r="O44" s="58"/>
       <c r="P44" s="50"/>
-      <c r="Q44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="57">
-        <v>20</v>
-      </c>
-      <c r="J45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="50">
-        <v>10</v>
-      </c>
-      <c r="N45" s="104" t="s">
-        <v>171</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="58"/>
       <c r="P45" s="50"/>
-      <c r="Q45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="61.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="60">
-        <v>10</v>
-      </c>
-      <c r="J46" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="50">
-        <v>5</v>
-      </c>
-      <c r="N46" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="O46" s="58" t="s">
-        <v>141</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="50"/>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L47" s="103" t="s">
         <v>113</v>
@@ -7177,53 +6802,86 @@
       <c r="M47">
         <v>5</v>
       </c>
-      <c r="N47" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N47" s="104"/>
+    </row>
+    <row r="48" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B48" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="121">
+        <v>20</v>
+      </c>
+      <c r="J48" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="121">
+        <v>5</v>
+      </c>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="121"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H49" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I49">
         <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L49" s="103" t="s">
         <v>113</v>
@@ -7232,46 +6890,46 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H50" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I50">
         <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="L50" s="103" t="s">
         <v>113</v>
@@ -7280,25 +6938,25 @@
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="O50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>1+A50</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H51" s="103" t="s">
         <v>25</v>
@@ -7307,98 +6965,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>1+A51</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H56" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I56">
         <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L56" s="103" t="s">
         <v>113</v>
@@ -7410,105 +7068,105 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
         <v>158</v>
       </c>
-      <c r="C58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H59" s="103" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I59">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K59" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="L59" s="103" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H60">
         <v>20</v>
       </c>
       <c r="I60" s="103" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K60" s="103" t="s">
         <v>113</v>
@@ -7520,56 +7178,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H62" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I62">
         <v>20</v>
       </c>
       <c r="J62" s="103" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L62" s="103" t="s">
         <v>113</v>
@@ -7581,36 +7239,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H63" s="103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="K63" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L63" s="103" t="s">
         <v>113</v>
@@ -7619,42 +7277,42 @@
         <v>5</v>
       </c>
       <c r="O63" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H64" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I64">
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K64" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L64" s="103" t="s">
         <v>113</v>
@@ -7663,50 +7321,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H66" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I66">
         <v>20</v>
       </c>
       <c r="J66" s="103" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L66" s="103" t="s">
         <v>113</v>
@@ -7718,39 +7376,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G67" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H67" s="103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I67">
         <v>20</v>
       </c>
       <c r="J67" s="103" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L67" s="103" t="s">
         <v>113</v>
@@ -7762,22 +7420,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7805,16 +7463,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7867,24 +7528,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7905,9 +7557,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
+++ b/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="195" windowWidth="19395" windowHeight="10995" tabRatio="601"/>
+    <workbookView xWindow="-216" yWindow="192" windowWidth="19392" windowHeight="10992" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Risk analysis" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="138">
   <si>
     <t>Failure mode</t>
   </si>
@@ -390,229 +390,12 @@
     <t>code</t>
   </si>
   <si>
-    <t>REQ014A1</t>
-  </si>
-  <si>
-    <t>design of simple table</t>
-  </si>
-  <si>
-    <t>no risk</t>
-  </si>
-  <si>
-    <t>REQ014A2</t>
-  </si>
-  <si>
-    <t>design of simple trable</t>
-  </si>
-  <si>
-    <t>REQ15</t>
-  </si>
-  <si>
-    <t>see 1</t>
-  </si>
-  <si>
-    <t>calculations of values in tables</t>
-  </si>
-  <si>
-    <t>coding error</t>
-  </si>
-  <si>
-    <t>incorrect relesae of PamChips</t>
-  </si>
-  <si>
     <t>wrong diagnosis</t>
   </si>
   <si>
-    <t>Input - output testing - Unit testing</t>
-  </si>
-  <si>
-    <t>devlopment procedures</t>
-  </si>
-  <si>
-    <t>REQ20</t>
-  </si>
-  <si>
-    <t>REQ21A</t>
-  </si>
-  <si>
-    <t>tables in report</t>
-  </si>
-  <si>
-    <t>incorrect data in report</t>
-  </si>
-  <si>
-    <t>code development</t>
-  </si>
-  <si>
-    <t>wrong calculation</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>user / config</t>
-  </si>
-  <si>
-    <t>development procedures</t>
-  </si>
-  <si>
-    <t>calculations wrongly coded</t>
-  </si>
-  <si>
     <t>18-Feb-2020</t>
   </si>
   <si>
-    <t>concordance result</t>
-  </si>
-  <si>
-    <t>REQ011A</t>
-  </si>
-  <si>
-    <t>design is not suitable for cioncordance calculation</t>
-  </si>
-  <si>
-    <t>user error</t>
-  </si>
-  <si>
-    <t>Incorrect result</t>
-  </si>
-  <si>
-    <t>runtime - development</t>
-  </si>
-  <si>
-    <t>standard/reviews designs are used for both routine (WI)and study (study protocol), crucial design parameters should be clear from the report (allowing check)</t>
-  </si>
-  <si>
-    <t>procedure / development</t>
-  </si>
-  <si>
-    <t>REQ011B</t>
-  </si>
-  <si>
-    <t>CV result</t>
-  </si>
-  <si>
-    <t>design is not suitable for CV calculation</t>
-  </si>
-  <si>
-    <t>REQ014A3</t>
-  </si>
-  <si>
-    <t>REQ014A4</t>
-  </si>
-  <si>
-    <t>REQ17A1-A4</t>
-  </si>
-  <si>
-    <t>REQ14A3- REQS70A1-A2-A4 - REQ71</t>
-  </si>
-  <si>
-    <t>see 1-5</t>
-  </si>
-  <si>
-    <t>See 1-5</t>
-  </si>
-  <si>
-    <t>REQ22</t>
-  </si>
-  <si>
-    <t>check on missing values</t>
-  </si>
-  <si>
-    <t>table columns</t>
-  </si>
-  <si>
-    <t>input not correcty configured in BN</t>
-  </si>
-  <si>
-    <t>calculation fails</t>
-  </si>
-  <si>
-    <t>no result</t>
-  </si>
-  <si>
-    <t>P:2
-D:1
-S:3</t>
-  </si>
-  <si>
-    <t>standard workflow, runtime check on columns in SP</t>
-  </si>
-  <si>
-    <t>development / procedurs</t>
-  </si>
-  <si>
-    <t>P:1
-D:1
-S:3</t>
-  </si>
-  <si>
-    <t>REQ026 (A1-A4)</t>
-  </si>
-  <si>
-    <t>incorrect result</t>
-  </si>
-  <si>
-    <t>mix-up of docx reports</t>
-  </si>
-  <si>
-    <t>travell card number and date added to report</t>
-  </si>
-  <si>
-    <t>Proc check on correct travell card (WI)</t>
-  </si>
-  <si>
-    <t>REQ27-32</t>
-  </si>
-  <si>
-    <t>report contents</t>
-  </si>
-  <si>
-    <t>contents misisng or incorrect</t>
-  </si>
-  <si>
-    <t>mix-up</t>
-  </si>
-  <si>
-    <t>Input - output testing - System testing</t>
-  </si>
-  <si>
-    <t>check the final rpeorts while testing</t>
-  </si>
-  <si>
-    <t>REQ37-38</t>
-  </si>
-  <si>
-    <t>exceptions</t>
-  </si>
-  <si>
-    <t>exception is missing</t>
-  </si>
-  <si>
-    <t>wrong result</t>
-  </si>
-  <si>
-    <t>REQ42</t>
-  </si>
-  <si>
-    <t>REQ40-49</t>
-  </si>
-  <si>
-    <t>stored data</t>
-  </si>
-  <si>
-    <t>code devlpoment</t>
-  </si>
-  <si>
-    <t>incorrect data stored</t>
-  </si>
-  <si>
-    <t>Input - output testing - Unit testing - system testing</t>
-  </si>
-  <si>
-    <t>REQ60-61</t>
-  </si>
-  <si>
     <t>software module dasrunqc</t>
   </si>
   <si>
@@ -653,6 +436,15 @@
   </si>
   <si>
     <t>018A11, 018A12, 018A13,018A16</t>
+  </si>
+  <si>
+    <t>021A1,021A2</t>
+  </si>
+  <si>
+    <t>37,38</t>
+  </si>
+  <si>
+    <t>60,61</t>
   </si>
 </sst>
 </file>
@@ -809,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -945,11 +737,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,32 +984,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1283,14 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,6 +1114,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1326,26 +1147,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,54 +1682,54 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="15" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="15" customWidth="1"/>
+    <col min="14" max="15" width="8.109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="15" customWidth="1"/>
     <col min="17" max="17" width="10" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15"/>
+    <col min="18" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="24"/>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="111"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
@@ -1851,23 +1739,23 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="54" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
@@ -1883,8 +1771,8 @@
       <c r="H6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="2:10" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="63" t="s">
+    <row r="7" spans="2:10" ht="26.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1898,8 +1786,8 @@
       <c r="H7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="2:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1912,19 +1800,19 @@
       <c r="H8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="98" t="s">
-        <v>192</v>
+      <c r="D9" s="93" t="s">
+        <v>121</v>
       </c>
       <c r="F9" s="40"/>
       <c r="H9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1932,14 +1820,14 @@
       <c r="H10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D11" s="21"/>
       <c r="F11" s="40"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12" s="18" t="s">
         <v>109</v>
       </c>
@@ -1948,11 +1836,11 @@
       <c r="H12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="93" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="40"/>
@@ -1960,7 +1848,7 @@
       <c r="H13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D14" s="21" t="s">
         <v>111</v>
       </c>
@@ -1969,47 +1857,47 @@
       <c r="H14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="100"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="95"/>
       <c r="F15" s="40"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="H17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>104</v>
       </c>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +1905,7 @@
       <c r="D22" s="18"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
@@ -2026,13 +1914,13 @@
       <c r="I23" s="20"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="I24" s="18"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +1929,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
         <v>16</v>
       </c>
@@ -2050,32 +1938,32 @@
       <c r="I26" s="19"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>66</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I30" s="19"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +1971,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>60</v>
       </c>
@@ -2092,7 +1980,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>96</v>
       </c>
@@ -2101,29 +1989,29 @@
       <c r="I33" s="16"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="65" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
         <v>63</v>
       </c>
       <c r="G35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="65" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="65" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="60" t="s">
         <v>61</v>
       </c>
       <c r="F37" s="18"/>
@@ -2131,14 +2019,14 @@
       <c r="I37" s="16"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -2151,18 +2039,18 @@
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="60" t="s">
         <v>101</v>
       </c>
       <c r="D40" s="19"/>
       <c r="G40" s="16"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>9</v>
       </c>
@@ -2215,50 +2103,50 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>2</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="113">
         <v>2</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" spans="1:18" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A43" s="51">
         <v>3</v>
       </c>
-      <c r="B43" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="45" t="s">
+      <c r="B43" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="115" t="s">
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
@@ -2267,11 +2155,11 @@
       <c r="I43" s="49">
         <v>20</v>
       </c>
-      <c r="J43" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>196</v>
+      <c r="J43" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -2279,934 +2167,668 @@
       <c r="M43" s="50">
         <v>5</v>
       </c>
-      <c r="N43" s="104"/>
-      <c r="O43" s="47"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
         <f>1+A43</f>
         <v>4</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="114">
         <v>5</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="48"/>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <v>10</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="48"/>
       <c r="M44" s="50"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="58"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
         <v>5</v>
       </c>
-      <c r="B45" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="58"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="58"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="50"/>
       <c r="Q45" s="50"/>
       <c r="R45" s="50"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B46" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+      <c r="B46" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="118"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="58"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="50"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="58" t="s">
+      <c r="B47" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="126">
         <v>10</v>
       </c>
-      <c r="J47" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K47" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="48" t="s">
+      <c r="J47" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="128">
         <v>5</v>
       </c>
-      <c r="N47" s="104"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="109"/>
-    </row>
-    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="51">
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="102"/>
+    </row>
+    <row r="48" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="123">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B48" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="118" t="s">
+      <c r="B48" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="119" t="s">
+      <c r="G48" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="55">
         <v>20</v>
       </c>
-      <c r="J48" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="L48" s="120" t="s">
+      <c r="J48" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="118">
+      <c r="M48" s="55">
         <v>5</v>
       </c>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" s="49">
+      <c r="B49" s="131">
         <v>20</v>
       </c>
-      <c r="J49" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49" s="50">
-        <v>5</v>
-      </c>
-      <c r="N49" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O49" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-    </row>
-    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="131"/>
+      <c r="D49" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="121"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+    </row>
+    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B50" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="58" t="s">
+      <c r="B50" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50" s="49">
-        <v>20</v>
-      </c>
-      <c r="J50" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="48" t="s">
+      <c r="H50" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="126">
+        <v>10</v>
+      </c>
+      <c r="J50" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="M50" s="50">
+      <c r="M50" s="128">
         <v>5</v>
       </c>
-      <c r="N50" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O50" s="50" t="s">
-        <v>157</v>
-      </c>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
     </row>
-    <row r="51" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A51" s="51">
         <f>1+A50</f>
         <v>11</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="134">
+        <v>22040</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48">
-        <v>1</v>
-      </c>
-      <c r="M51" s="50"/>
+      <c r="H51" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="55">
+        <v>20</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="55">
+        <v>5</v>
+      </c>
       <c r="N51" s="50"/>
       <c r="O51" s="50"/>
       <c r="P51" s="50"/>
       <c r="Q51" s="50"/>
     </row>
-    <row r="52" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <f>1+A51</f>
         <v>12</v>
       </c>
-      <c r="B52" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B52" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="113"/>
+      <c r="D52" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="48">
-        <v>5</v>
-      </c>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="50"/>
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
     </row>
-    <row r="53" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
         <v>13</v>
       </c>
-      <c r="B53" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="53" t="s">
+      <c r="B53" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="113"/>
+      <c r="D53" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="50"/>
+      <c r="E53" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="55">
+        <v>20</v>
+      </c>
+      <c r="J53" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="55">
+        <v>5</v>
+      </c>
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="50"/>
     </row>
-    <row r="54" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B54" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B54" s="113">
+        <v>70</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
       <c r="M54" s="50"/>
       <c r="N54" s="50"/>
       <c r="O54" s="50"/>
       <c r="P54" s="50"/>
       <c r="Q54" s="50"/>
     </row>
-    <row r="55" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
         <v>1</v>
       </c>
-      <c r="B55" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
       <c r="M55" s="50"/>
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
       <c r="P55" s="50"/>
       <c r="Q55" s="50"/>
     </row>
-    <row r="56" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="51">
         <v>1</v>
       </c>
-      <c r="B56" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" s="49">
-        <v>20</v>
-      </c>
-      <c r="J56" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56" s="50">
-        <v>5</v>
-      </c>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="50"/>
       <c r="N56" s="50"/>
       <c r="O56" s="50"/>
       <c r="P56" s="50"/>
-      <c r="Q56" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="Q56" s="50"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="51">
         <v>1</v>
       </c>
-      <c r="B57" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
       <c r="M57" s="50"/>
       <c r="N57" s="50"/>
       <c r="O57" s="50"/>
       <c r="P57" s="50"/>
       <c r="Q57" s="50"/>
     </row>
-    <row r="58" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="51">
         <v>1</v>
       </c>
-      <c r="B58" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
       <c r="M58" s="50"/>
       <c r="N58" s="50"/>
       <c r="O58" s="50"/>
       <c r="P58" s="50"/>
       <c r="Q58" s="50"/>
     </row>
-    <row r="59" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="51">
         <v>1</v>
       </c>
-      <c r="B59" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" s="49">
-        <v>6</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="M59" s="50">
-        <v>3</v>
-      </c>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="50"/>
       <c r="N59" s="50"/>
-      <c r="O59" s="50" t="s">
-        <v>185</v>
-      </c>
+      <c r="O59" s="50"/>
       <c r="P59" s="50"/>
-      <c r="Q59" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="Q59" s="50"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="51">
         <v>1</v>
       </c>
-      <c r="B60" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H60" s="49">
-        <v>20</v>
-      </c>
-      <c r="I60" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="50">
-        <v>5</v>
-      </c>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="50"/>
       <c r="N60" s="50"/>
       <c r="O60" s="50"/>
-      <c r="P60" s="50">
-        <v>5</v>
-      </c>
+      <c r="P60" s="50"/>
       <c r="Q60" s="50"/>
     </row>
-    <row r="61" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="51">
         <v>1</v>
       </c>
-      <c r="B61" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
       <c r="M61" s="50"/>
       <c r="N61" s="50"/>
       <c r="O61" s="50"/>
       <c r="P61" s="50"/>
       <c r="Q61" s="50"/>
     </row>
-    <row r="62" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="51">
         <v>1</v>
       </c>
-      <c r="B62" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="49">
-        <v>20</v>
-      </c>
-      <c r="J62" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M62" s="50">
-        <v>5</v>
-      </c>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="50"/>
       <c r="N62" s="50"/>
       <c r="O62" s="50"/>
       <c r="P62" s="50"/>
-      <c r="Q62" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.2">
+      <c r="Q62" s="50"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="51">
         <v>1</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="49">
-        <v>10</v>
-      </c>
-      <c r="J63" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="L63" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63" s="50">
-        <v>5</v>
-      </c>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="50"/>
       <c r="N63" s="50"/>
-      <c r="O63" s="50" t="s">
-        <v>175</v>
-      </c>
+      <c r="O63" s="50"/>
       <c r="P63" s="50"/>
-      <c r="Q63" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="50"/>
+    </row>
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
-      <c r="B64" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="49">
-        <v>20</v>
-      </c>
-      <c r="J64" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="L64" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M64" s="50">
-        <v>5</v>
-      </c>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="50"/>
       <c r="N64" s="50"/>
       <c r="O64" s="50"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="50"/>
     </row>
-    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>1</v>
       </c>
-      <c r="B65" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
       <c r="M65" s="50"/>
       <c r="N65" s="50"/>
       <c r="O65" s="50"/>
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
     </row>
-    <row r="66" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>1</v>
       </c>
-      <c r="B66" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" s="49">
-        <v>20</v>
-      </c>
-      <c r="J66" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="L66" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M66" s="50">
-        <v>5</v>
-      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="50"/>
       <c r="N66" s="50"/>
       <c r="O66" s="50"/>
       <c r="P66" s="50"/>
-      <c r="Q66" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="Q66" s="50"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="51">
         <v>1</v>
       </c>
-      <c r="B67" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67" s="49">
-        <v>20</v>
-      </c>
-      <c r="J67" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K67" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="M67" s="50">
-        <v>5</v>
-      </c>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="50"/>
       <c r="N67" s="50"/>
       <c r="O67" s="50"/>
       <c r="P67" s="50"/>
-      <c r="Q67" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="Q67" s="50"/>
+    </row>
+    <row r="68" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>1</v>
       </c>
@@ -3231,7 +2853,7 @@
       <c r="P68" s="50"/>
       <c r="Q68" s="50"/>
     </row>
-    <row r="69" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A69" s="51">
         <v>1</v>
       </c>
@@ -3256,7 +2878,7 @@
       <c r="P69" s="50"/>
       <c r="Q69" s="50"/>
     </row>
-    <row r="70" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A70" s="51">
         <v>1</v>
       </c>
@@ -3281,7 +2903,7 @@
       <c r="P70" s="50"/>
       <c r="Q70" s="50"/>
     </row>
-    <row r="71" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
         <v>36</v>
       </c>
@@ -3306,7 +2928,7 @@
       <c r="P71" s="50"/>
       <c r="Q71" s="50"/>
     </row>
-    <row r="72" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
         <v>37</v>
       </c>
@@ -3331,7 +2953,7 @@
       <c r="P72" s="50"/>
       <c r="Q72" s="50"/>
     </row>
-    <row r="73" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
         <v>38</v>
       </c>
@@ -3356,7 +2978,7 @@
       <c r="P73" s="50"/>
       <c r="Q73" s="50"/>
     </row>
-    <row r="74" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
         <v>39</v>
       </c>
@@ -3381,7 +3003,7 @@
       <c r="P74" s="50"/>
       <c r="Q74" s="50"/>
     </row>
-    <row r="75" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
         <v>40</v>
       </c>
@@ -3406,7 +3028,7 @@
       <c r="P75" s="50"/>
       <c r="Q75" s="50"/>
     </row>
-    <row r="76" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
         <v>41</v>
       </c>
@@ -3431,7 +3053,7 @@
       <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
     </row>
-    <row r="77" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A77" s="51">
         <v>42</v>
       </c>
@@ -3456,7 +3078,7 @@
       <c r="P77" s="50"/>
       <c r="Q77" s="50"/>
     </row>
-    <row r="78" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
         <v>43</v>
       </c>
@@ -3481,7 +3103,7 @@
       <c r="P78" s="50"/>
       <c r="Q78" s="50"/>
     </row>
-    <row r="79" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A79" s="51">
         <v>44</v>
       </c>
@@ -3506,7 +3128,7 @@
       <c r="P79" s="50"/>
       <c r="Q79" s="50"/>
     </row>
-    <row r="80" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A80" s="51">
         <v>45</v>
       </c>
@@ -3531,7 +3153,7 @@
       <c r="P80" s="50"/>
       <c r="Q80" s="50"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A81" s="51">
         <v>46</v>
       </c>
@@ -3556,7 +3178,7 @@
       <c r="P81" s="50"/>
       <c r="Q81" s="50"/>
     </row>
-    <row r="82" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A82" s="51">
         <v>47</v>
       </c>
@@ -3581,7 +3203,7 @@
       <c r="P82" s="50"/>
       <c r="Q82" s="50"/>
     </row>
-    <row r="83" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A83" s="51">
         <v>48</v>
       </c>
@@ -3606,7 +3228,7 @@
       <c r="P83" s="50"/>
       <c r="Q83" s="50"/>
     </row>
-    <row r="84" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
         <v>49</v>
       </c>
@@ -3631,7 +3253,7 @@
       <c r="P84" s="50"/>
       <c r="Q84" s="50"/>
     </row>
-    <row r="85" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
         <v>6</v>
       </c>
@@ -3683,36 +3305,36 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="88"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="83"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="77">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
         <v>5</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
@@ -3722,47 +3344,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="77">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="72">
         <v>4</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="101">
         <v>43879</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="77">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
         <v>3</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="82" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="77">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="82" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="77">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
         <v>1</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="82" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
@@ -3772,7 +3394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>112</v>
       </c>
@@ -3780,237 +3402,243 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="77">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
         <v>5</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77">
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
         <v>4</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-    </row>
-    <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+    </row>
+    <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>3</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-    </row>
-    <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77">
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+    </row>
+    <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>2</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="77">
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
         <v>1</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="82" t="s">
         <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="90">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="85">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="91">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="F28" s="95"/>
+      <c r="F28" s="90"/>
       <c r="G28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="96"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="91"/>
       <c r="G30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="97"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="92"/>
       <c r="G32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="72">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>197</v>
-      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="50"/>
-    </row>
-    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="Q42" s="72"/>
+    </row>
+    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="B43" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="72" t="s">
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
@@ -4019,11 +3647,11 @@
       <c r="I43" s="49">
         <v>20</v>
       </c>
-      <c r="J43" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>196</v>
+      <c r="J43" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -4031,747 +3659,651 @@
       <c r="M43" s="50">
         <v>5</v>
       </c>
-      <c r="N43" s="104"/>
-      <c r="O43" s="47"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="50"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="72"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>1+A43</f>
         <v>4</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="72">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
-        <v>197</v>
-      </c>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="48"/>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <v>10</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="48"/>
       <c r="M44" s="50"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="58"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="50"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="72"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s">
-        <v>197</v>
-      </c>
+      <c r="B45" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="58"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="58"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="50"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="72"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>199</v>
-      </c>
+      <c r="B46" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="58"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="50"/>
-    </row>
-    <row r="47" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q46" s="72"/>
+    </row>
+    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B47" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="103" t="s">
+      <c r="H47" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="72">
         <v>10</v>
       </c>
-      <c r="J47" t="s">
-        <v>203</v>
-      </c>
-      <c r="K47" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="103" t="s">
+      <c r="J47" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="72">
         <v>5</v>
       </c>
-      <c r="N47" s="104"/>
-    </row>
-    <row r="48" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="N47" s="128"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+    </row>
+    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B48" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="121" t="s">
+      <c r="B48" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="121" t="s">
+      <c r="F48" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="122" t="s">
+      <c r="G48" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="121">
+      <c r="I48" s="129">
         <v>20</v>
       </c>
-      <c r="J48" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="121" t="s">
-        <v>204</v>
-      </c>
-      <c r="L48" s="122" t="s">
+      <c r="J48" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="121">
+      <c r="M48" s="129">
         <v>5</v>
       </c>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49">
+      <c r="B49" s="72">
         <v>20</v>
       </c>
-      <c r="J49" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>150</v>
-      </c>
-      <c r="O49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="72"/>
+      <c r="D49" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+    </row>
+    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="B50" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="103" t="s">
+      <c r="H50" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="72">
+        <v>10</v>
+      </c>
+      <c r="J50" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="72">
         <v>5</v>
       </c>
-      <c r="N50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+    </row>
+    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>1+A50</f>
         <v>11</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="135">
+        <v>22040</v>
+      </c>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H51" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="129">
+        <v>20</v>
+      </c>
+      <c r="J51" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="129">
+        <v>5</v>
+      </c>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>1+A51</f>
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+    </row>
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
         <v>13</v>
       </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E53" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="129">
+        <v>20</v>
+      </c>
+      <c r="J53" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="129">
+        <v>5</v>
+      </c>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="72">
+        <v>70</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56">
-        <v>5</v>
-      </c>
-      <c r="Q56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="M59">
-        <v>3</v>
-      </c>
-      <c r="O59" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62">
-        <v>20</v>
-      </c>
-      <c r="J62" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M62">
-        <v>5</v>
-      </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" t="s">
-        <v>174</v>
-      </c>
-      <c r="L63" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-      <c r="O63" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" t="s">
-        <v>180</v>
-      </c>
-      <c r="L64" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+    </row>
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+    </row>
+    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66">
-        <v>20</v>
-      </c>
-      <c r="J66" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" t="s">
-        <v>140</v>
-      </c>
-      <c r="L66" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="H66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="L66" s="98"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67">
-        <v>20</v>
-      </c>
-      <c r="J67" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="K67" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M67">
-        <v>5</v>
-      </c>
-      <c r="Q67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="L67" s="98"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -4801,39 +4333,39 @@
   <dimension ref="A1:Q278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
+      <c r="A2" s="69"/>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="70" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="42">
@@ -4844,10 +4376,10 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="107">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="100">
         <v>43879</v>
       </c>
       <c r="E4" s="6"/>
@@ -4855,25 +4387,25 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="E5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="E6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -4884,9 +4416,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4897,44 +4429,44 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="5" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="E9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
       <c r="E10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
       <c r="E11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
       <c r="E12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
@@ -4943,9 +4475,9 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="5" t="s">
         <v>111</v>
       </c>
@@ -4954,25 +4486,25 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
       <c r="E15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
       <c r="E16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
       <c r="E17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5016,39 +4548,45 @@
       <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="104"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="50"/>
-    </row>
-    <row r="43" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="B43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="8" t="s">
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
@@ -5057,11 +4595,11 @@
       <c r="I43" s="49">
         <v>20</v>
       </c>
-      <c r="J43" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>196</v>
+      <c r="J43" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -5069,93 +4607,110 @@
       <c r="M43" s="50">
         <v>5</v>
       </c>
-      <c r="N43" s="104"/>
-      <c r="O43" s="47"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="50"/>
+      <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>1+A43</f>
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="104"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="48"/>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <v>10</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="48"/>
       <c r="M44" s="50"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="58"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="50"/>
+      <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="B45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="104"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="58"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="58"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="50"/>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="B46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="58"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="50"/>
-    </row>
-    <row r="47" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="B47" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="8" t="s">
         <v>115</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -5164,635 +4719,497 @@
       <c r="I47" s="8">
         <v>10</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="1" t="s">
+      <c r="J47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="8">
         <v>5</v>
       </c>
-      <c r="N47" s="104"/>
-    </row>
-    <row r="48" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="N47" s="128"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="B48" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="123" t="s">
+      <c r="G48" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="123">
+      <c r="I48" s="130">
         <v>20</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="J48" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="130">
         <v>5</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" s="8">
+      <c r="B49" s="8">
         <v>20</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49" s="1">
-        <v>5</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="104"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="B50" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>115</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I50" s="8">
-        <v>20</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="8">
         <v>5</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>1+A50</f>
         <v>11</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="136">
+        <v>22040</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
+      <c r="H51" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="130">
+        <v>20</v>
+      </c>
+      <c r="J51" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="130">
+        <v>5</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>1+A51</f>
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="104"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
         <v>13</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="E53" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="130">
+        <v>20</v>
+      </c>
+      <c r="J53" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="130">
+        <v>5</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B54" s="8">
+        <v>70</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="104"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" s="8">
-        <v>20</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>5</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="72" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" s="8">
-        <v>6</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M59" s="1">
-        <v>3</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="60" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H60" s="8">
-        <v>20</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="1">
-        <v>5</v>
-      </c>
-      <c r="P60" s="1">
-        <v>5</v>
-      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="8">
-        <v>20</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M62" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="72" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="8">
-        <v>10</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63" s="1">
-        <v>5</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>5</v>
-      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="8">
-        <v>20</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="84" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" s="8">
-        <v>20</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M66" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="84" x14ac:dyDescent="0.2">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67" s="8">
-        <v>20</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M67" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>5</v>
-      </c>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -5833,47 +5250,47 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H167" s="11"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H168" s="11"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H169" s="11"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H170" s="11"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H171" s="11"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H172" s="11"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H173" s="11"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H174" s="11"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H175" s="11"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H176" s="11"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5892,502 +5309,502 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E178" s="3"/>
       <c r="H178" s="12"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E179" s="3"/>
       <c r="H179" s="12"/>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E180" s="3"/>
       <c r="H180" s="12"/>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E181" s="3"/>
       <c r="H181" s="12"/>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E182" s="3"/>
       <c r="H182" s="12"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E183" s="3"/>
       <c r="H183" s="12"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E184" s="3"/>
       <c r="H184" s="12"/>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E185" s="3"/>
       <c r="H185" s="12"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E186" s="3"/>
       <c r="H186" s="12"/>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E187" s="3"/>
       <c r="H187" s="12"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E188" s="3"/>
       <c r="H188" s="12"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E189" s="3"/>
       <c r="H189" s="12"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E190" s="3"/>
       <c r="H190" s="12"/>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E191" s="3"/>
       <c r="H191" s="12"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E192" s="3"/>
       <c r="H192" s="12"/>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E193" s="3"/>
       <c r="H193" s="12"/>
       <c r="I193" s="10"/>
     </row>
-    <row r="194" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E194" s="3"/>
       <c r="H194" s="12"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E195" s="3"/>
       <c r="H195" s="12"/>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E196" s="3"/>
       <c r="H196" s="12"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E197" s="3"/>
       <c r="H197" s="12"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E198" s="3"/>
       <c r="H198" s="12"/>
       <c r="I198" s="10"/>
     </row>
-    <row r="199" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E199" s="3"/>
       <c r="H199" s="12"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E200" s="3"/>
       <c r="H200" s="12"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E201" s="3"/>
       <c r="H201" s="12"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E202" s="3"/>
       <c r="H202" s="12"/>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E203" s="3"/>
       <c r="H203" s="12"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E204" s="3"/>
       <c r="H204" s="12"/>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E205" s="3"/>
       <c r="H205" s="12"/>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E206" s="3"/>
       <c r="H206" s="12"/>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E207" s="3"/>
       <c r="H207" s="12"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E208" s="3"/>
       <c r="H208" s="12"/>
       <c r="I208" s="10"/>
     </row>
-    <row r="209" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E209" s="3"/>
       <c r="H209" s="12"/>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E210" s="3"/>
       <c r="H210" s="12"/>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E211" s="3"/>
       <c r="H211" s="12"/>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E212" s="3"/>
       <c r="H212" s="12"/>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E213" s="3"/>
       <c r="H213" s="12"/>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E214" s="3"/>
       <c r="H214" s="12"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E215" s="3"/>
       <c r="H215" s="12"/>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E216" s="3"/>
       <c r="H216" s="12"/>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E217" s="3"/>
       <c r="H217" s="12"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E218" s="3"/>
       <c r="H218" s="12"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E219" s="3"/>
       <c r="H219" s="12"/>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E220" s="3"/>
       <c r="H220" s="12"/>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E221" s="3"/>
       <c r="H221" s="12"/>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E222" s="3"/>
       <c r="H222" s="12"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E223" s="3"/>
       <c r="H223" s="12"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E224" s="3"/>
       <c r="H224" s="12"/>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E225" s="3"/>
       <c r="H225" s="12"/>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E226" s="3"/>
       <c r="H226" s="12"/>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E227" s="3"/>
       <c r="H227" s="12"/>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E228" s="3"/>
       <c r="H228" s="12"/>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E229" s="3"/>
       <c r="H229" s="12"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E230" s="3"/>
       <c r="H230" s="12"/>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E231" s="3"/>
       <c r="H231" s="12"/>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E232" s="3"/>
       <c r="H232" s="12"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E233" s="3"/>
       <c r="H233" s="12"/>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E234" s="3"/>
       <c r="H234" s="12"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E235" s="3"/>
       <c r="H235" s="12"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E236" s="3"/>
       <c r="H236" s="12"/>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E237" s="3"/>
       <c r="H237" s="12"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E238" s="3"/>
       <c r="H238" s="12"/>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E239" s="3"/>
       <c r="H239" s="12"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E240" s="3"/>
       <c r="H240" s="12"/>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E241" s="3"/>
       <c r="H241" s="12"/>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E242" s="3"/>
       <c r="H242" s="12"/>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E243" s="3"/>
       <c r="H243" s="12"/>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E244" s="3"/>
       <c r="H244" s="12"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E245" s="3"/>
       <c r="H245" s="12"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E246" s="3"/>
       <c r="H246" s="12"/>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E247" s="3"/>
       <c r="H247" s="12"/>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E248" s="3"/>
       <c r="H248" s="12"/>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E249" s="3"/>
       <c r="H249" s="12"/>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E250" s="3"/>
       <c r="H250" s="12"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E251" s="3"/>
       <c r="H251" s="12"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E252" s="3"/>
       <c r="H252" s="12"/>
       <c r="I252" s="10"/>
     </row>
-    <row r="253" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E253" s="3"/>
       <c r="H253" s="12"/>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E254" s="3"/>
       <c r="H254" s="12"/>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E255" s="3"/>
       <c r="H255" s="12"/>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E256" s="3"/>
       <c r="H256" s="12"/>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E257" s="3"/>
       <c r="H257" s="12"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E258" s="3"/>
       <c r="H258" s="12"/>
       <c r="I258" s="10"/>
     </row>
-    <row r="259" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E259" s="3"/>
       <c r="H259" s="12"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E260" s="3"/>
       <c r="H260" s="12"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E261" s="3"/>
       <c r="H261" s="12"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E262" s="3"/>
       <c r="H262" s="12"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E263" s="3"/>
       <c r="H263" s="12"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E264" s="3"/>
       <c r="H264" s="12"/>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E265" s="3"/>
       <c r="H265" s="12"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E266" s="3"/>
       <c r="H266" s="12"/>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E267" s="3"/>
       <c r="H267" s="12"/>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E268" s="3"/>
       <c r="H268" s="12"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E269" s="3"/>
       <c r="H269" s="12"/>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E270" s="3"/>
       <c r="H270" s="12"/>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E271" s="3"/>
       <c r="H271" s="12"/>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="5:9" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:9" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E272" s="3"/>
       <c r="H272" s="12"/>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E273" s="3"/>
       <c r="H273" s="12"/>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E274" s="3"/>
       <c r="H274" s="12"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E275" s="3"/>
       <c r="H275" s="12"/>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E276" s="3"/>
       <c r="H276" s="12"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:17" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E277" s="3"/>
       <c r="H277" s="12"/>
       <c r="I277" s="10"/>
@@ -6431,250 +5848,256 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="65">
         <v>1</v>
       </c>
-      <c r="E3" s="70"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="99">
         <v>43879</v>
       </c>
-      <c r="E4" s="70"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="72"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="D9" s="80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="81" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78">
         <v>1</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="88">
         <v>43434</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="82" t="s">
+      <c r="D11" s="112"/>
+      <c r="E11" s="77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="89">
         <v>43488</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="70" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="92.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+    <row r="13" spans="1:5" ht="92.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79">
         <v>1.2</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="89">
         <v>43634</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="112"/>
+      <c r="E13" s="65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="77" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="72"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="72">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>197</v>
-      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="50"/>
-    </row>
-    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="Q42" s="72"/>
+    </row>
+    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="B43" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="72" t="s">
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
@@ -6683,11 +6106,11 @@
       <c r="I43" s="49">
         <v>20</v>
       </c>
-      <c r="J43" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>196</v>
+      <c r="J43" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -6695,747 +6118,651 @@
       <c r="M43" s="50">
         <v>5</v>
       </c>
-      <c r="N43" s="104"/>
-      <c r="O43" s="47"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="50"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="72"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>1+A43</f>
         <v>4</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="72">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
-        <v>197</v>
-      </c>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="48"/>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <v>10</v>
       </c>
-      <c r="J44" s="56"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="48"/>
       <c r="M44" s="50"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="58"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="50"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="72"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45:A50" si="0">1+A44</f>
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s">
-        <v>197</v>
-      </c>
+      <c r="B45" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="58"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="58"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="50"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="72"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>199</v>
-      </c>
+      <c r="B46" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="58"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="50"/>
-    </row>
-    <row r="47" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="Q46" s="72"/>
+    </row>
+    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B47" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="103" t="s">
+      <c r="H47" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="72">
         <v>10</v>
       </c>
-      <c r="J47" t="s">
-        <v>203</v>
-      </c>
-      <c r="K47" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="103" t="s">
+      <c r="J47" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="72">
         <v>5</v>
       </c>
-      <c r="N47" s="104"/>
-    </row>
-    <row r="48" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="N47" s="128"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+    </row>
+    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B48" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="121" t="s">
+      <c r="B48" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="121" t="s">
+      <c r="F48" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="122" t="s">
+      <c r="G48" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="121">
+      <c r="I48" s="129">
         <v>20</v>
       </c>
-      <c r="J48" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="121" t="s">
-        <v>204</v>
-      </c>
-      <c r="L48" s="122" t="s">
+      <c r="J48" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="121">
+      <c r="M48" s="129">
         <v>5</v>
       </c>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+    </row>
+    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49">
+      <c r="B49" s="72">
         <v>20</v>
       </c>
-      <c r="J49" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>150</v>
-      </c>
-      <c r="O49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="72"/>
+      <c r="D49" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+    </row>
+    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="B50" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="103" t="s">
+      <c r="H50" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="72">
+        <v>10</v>
+      </c>
+      <c r="J50" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="72">
         <v>5</v>
       </c>
-      <c r="N50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+    </row>
+    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>1+A50</f>
         <v>11</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="135">
+        <v>22040</v>
+      </c>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H51" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="129">
+        <v>20</v>
+      </c>
+      <c r="J51" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="129">
+        <v>5</v>
+      </c>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>1+A51</f>
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+    </row>
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53:A54" si="1">1+A52</f>
         <v>13</v>
       </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E53" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="129">
+        <v>20</v>
+      </c>
+      <c r="J53" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="129">
+        <v>5</v>
+      </c>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="72">
+        <v>70</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" t="s">
-        <v>131</v>
-      </c>
-      <c r="L56" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56">
-        <v>5</v>
-      </c>
-      <c r="Q56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="M59">
-        <v>3</v>
-      </c>
-      <c r="O59" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62">
-        <v>20</v>
-      </c>
-      <c r="J62" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M62">
-        <v>5</v>
-      </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" t="s">
-        <v>174</v>
-      </c>
-      <c r="L63" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-      <c r="O63" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" t="s">
-        <v>180</v>
-      </c>
-      <c r="L64" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+    </row>
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+    </row>
+    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66">
-        <v>20</v>
-      </c>
-      <c r="J66" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" t="s">
-        <v>140</v>
-      </c>
-      <c r="L66" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="H66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="L66" s="98"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67">
-        <v>20</v>
-      </c>
-      <c r="J67" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="K67" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M67">
-        <v>5</v>
-      </c>
-      <c r="Q67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="L67" s="98"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -7463,19 +6790,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7528,15 +6852,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7557,16 +6891,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
+++ b/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="146">
   <si>
     <t>Failure mode</t>
   </si>
@@ -408,9 +408,6 @@
     <t>input/putput testing</t>
   </si>
   <si>
-    <t>unit test</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -445,6 +442,35 @@
   </si>
   <si>
     <t>60,61</t>
+  </si>
+  <si>
+    <t>Software testing</t>
+  </si>
+  <si>
+    <t>ComBat correction</t>
+  </si>
+  <si>
+    <t>Methodology error</t>
+  </si>
+  <si>
+    <t>wrong method</t>
+  </si>
+  <si>
+    <t>P:2
+D:1
+S:5</t>
+  </si>
+  <si>
+    <t>ComBat is a standard method with a standard implementation in the R-package SVA. Input output testing should be performed to assurethat the results are the same as with SVA package</t>
+  </si>
+  <si>
+    <t>settings for correction method</t>
+  </si>
+  <si>
+    <t>required exceptions</t>
+  </si>
+  <si>
+    <t>check on input data</t>
   </si>
 </sst>
 </file>
@@ -791,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1121,6 +1147,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1147,93 +1261,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,8 +1358,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>132356</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>520976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1680,10 +1709,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1720,14 +1749,14 @@
       <c r="G1" s="97"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="106"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -2107,16 +2136,16 @@
       <c r="A42" s="51">
         <v>2</v>
       </c>
-      <c r="B42" s="113">
+      <c r="B42" s="105">
         <v>2</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
       <c r="J42" s="50"/>
@@ -2129,37 +2158,37 @@
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
-        <v>3</v>
-      </c>
-      <c r="B43" s="114" t="s">
+    <row r="43" spans="1:18" ht="153" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="115" t="s">
+      <c r="C43" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="115" t="s">
+      <c r="G43" s="107" t="s">
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I43" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -2168,58 +2197,77 @@
         <v>5</v>
       </c>
       <c r="N43" s="50"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
-        <f>1+A43</f>
-        <v>4</v>
-      </c>
-      <c r="B44" s="114">
+        <v>3</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="49">
+        <v>20</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="50">
         <v>5</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="55">
-        <v>10</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="56"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
-        <f t="shared" ref="A45:A50" si="0">1+A44</f>
+        <f>1+A44</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="106">
         <v>5</v>
-      </c>
-      <c r="B45" s="116" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="56"/>
       <c r="D45" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="117"/>
+      <c r="I45" s="55">
+        <v>10</v>
+      </c>
+      <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
@@ -2231,20 +2279,22 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B46" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+        <f t="shared" ref="A46:A51" si="0">1+A45</f>
+        <v>5</v>
+      </c>
+      <c r="B46" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="109"/>
       <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
@@ -2254,206 +2304,189 @@
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+    </row>
+    <row r="48" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="51">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B47" s="124" t="s">
+      <c r="B48" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="125" t="s">
+      <c r="D48" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="126" t="s">
+      <c r="E48" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="118">
+        <v>10</v>
+      </c>
+      <c r="J48" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="126">
-        <v>10</v>
-      </c>
-      <c r="J47" s="126" t="s">
+      <c r="K48" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="127" t="s">
+      <c r="L48" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="128">
+      <c r="M48" s="120">
         <v>5</v>
       </c>
-      <c r="N47" s="128"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="128"/>
-      <c r="R47" s="102"/>
-    </row>
-    <row r="48" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="123">
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="102"/>
+    </row>
+    <row r="49" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="115">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55" t="s">
+      <c r="B49" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E49" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F49" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G49" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="103" t="s">
+      <c r="H49" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="55">
+      <c r="I49" s="55">
         <v>20</v>
       </c>
-      <c r="J48" s="55" t="s">
+      <c r="J49" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="103" t="s">
+      <c r="L49" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="55">
+      <c r="M49" s="55">
         <v>5</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51">
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+    </row>
+    <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" s="131">
+      <c r="B50" s="123">
         <v>20</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-    </row>
-    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51">
+      <c r="C50" s="123"/>
+      <c r="D50" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+    </row>
+    <row r="51" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B50" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="125" t="s">
+      <c r="B51" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="E51" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="118">
+        <v>10</v>
+      </c>
+      <c r="J51" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="126">
-        <v>10</v>
-      </c>
-      <c r="J50" s="126" t="s">
+      <c r="K51" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="K50" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="127" t="s">
+      <c r="L51" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="M50" s="128">
-        <v>5</v>
-      </c>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-    </row>
-    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
-        <f>1+A50</f>
-        <v>11</v>
-      </c>
-      <c r="B51" s="134">
-        <v>22040</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="55">
-        <v>20</v>
-      </c>
-      <c r="J51" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M51" s="55">
+      <c r="M51" s="120">
         <v>5</v>
       </c>
       <c r="N51" s="50"/>
@@ -2461,97 +2494,119 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="50"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <f>1+A51</f>
-        <v>12</v>
-      </c>
-      <c r="B52" s="113" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="50"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="126">
+        <v>22040</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="55">
+        <v>20</v>
+      </c>
+      <c r="J52" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="55">
+        <v>5</v>
+      </c>
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
     </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
-        <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>13</v>
-      </c>
-      <c r="B53" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="55">
-        <v>20</v>
-      </c>
-      <c r="J53" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="55">
-        <v>5</v>
-      </c>
+        <f>1+A52</f>
+        <v>12</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="50"/>
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="50"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B54" s="113">
-        <v>70</v>
-      </c>
-      <c r="C54" s="113"/>
-      <c r="D54" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="50"/>
+        <f t="shared" ref="A54:A55" si="1">1+A53</f>
+        <v>13</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="55">
+        <v>20</v>
+      </c>
+      <c r="J54" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="55">
+        <v>5</v>
+      </c>
       <c r="N54" s="50"/>
       <c r="O54" s="50"/>
       <c r="P54" s="50"/>
@@ -2559,14 +2614,19 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
-        <v>1</v>
-      </c>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="105">
+        <v>70</v>
+      </c>
+      <c r="C55" s="105"/>
+      <c r="D55" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
       <c r="H55" s="48"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
@@ -2582,12 +2642,12 @@
       <c r="A56" s="51">
         <v>1</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
       <c r="H56" s="48"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
@@ -2603,12 +2663,12 @@
       <c r="A57" s="51">
         <v>1</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
       <c r="H57" s="48"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
@@ -2624,12 +2684,12 @@
       <c r="A58" s="51">
         <v>1</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
       <c r="H58" s="48"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -2645,12 +2705,12 @@
       <c r="A59" s="51">
         <v>1</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
       <c r="H59" s="48"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
@@ -2666,17 +2726,17 @@
       <c r="A60" s="51">
         <v>1</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="48"/>
-      <c r="L60" s="50"/>
+      <c r="L60" s="48"/>
       <c r="M60" s="50"/>
       <c r="N60" s="50"/>
       <c r="O60" s="50"/>
@@ -2687,17 +2747,17 @@
       <c r="A61" s="51">
         <v>1</v>
       </c>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
+      <c r="L61" s="50"/>
       <c r="M61" s="50"/>
       <c r="N61" s="50"/>
       <c r="O61" s="50"/>
@@ -2708,15 +2768,15 @@
       <c r="A62" s="51">
         <v>1</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
       <c r="H62" s="48"/>
       <c r="I62" s="49"/>
-      <c r="J62" s="48"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="48"/>
       <c r="L62" s="48"/>
       <c r="M62" s="50"/>
@@ -2729,15 +2789,15 @@
       <c r="A63" s="51">
         <v>1</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
       <c r="H63" s="48"/>
       <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
       <c r="M63" s="50"/>
@@ -2746,14 +2806,16 @@
       <c r="P63" s="50"/>
       <c r="Q63" s="50"/>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="51">
+        <v>1</v>
+      </c>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
       <c r="H64" s="48"/>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
@@ -2765,16 +2827,14 @@
       <c r="P64" s="50"/>
       <c r="Q64" s="50"/>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51">
-        <v>1</v>
-      </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
+    <row r="65" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
       <c r="H65" s="48"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
@@ -2786,20 +2846,20 @@
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>1</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="48"/>
       <c r="I66" s="49"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="47"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="48"/>
       <c r="M66" s="50"/>
       <c r="N66" s="50"/>
@@ -2828,7 +2888,7 @@
       <c r="P67" s="50"/>
       <c r="Q67" s="50"/>
     </row>
-    <row r="68" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>1</v>
       </c>
@@ -2838,15 +2898,11 @@
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
       <c r="G68" s="46"/>
-      <c r="H68" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="H68" s="47"/>
       <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="47"/>
-      <c r="L68" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="L68" s="48"/>
       <c r="M68" s="50"/>
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
@@ -2905,7 +2961,7 @@
     </row>
     <row r="71" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="53"/>
@@ -2930,7 +2986,7 @@
     </row>
     <row r="72" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="53"/>
@@ -2955,7 +3011,7 @@
     </row>
     <row r="73" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
@@ -2980,7 +3036,7 @@
     </row>
     <row r="74" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="53"/>
@@ -3005,7 +3061,7 @@
     </row>
     <row r="75" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="53"/>
@@ -3030,7 +3086,7 @@
     </row>
     <row r="76" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="53"/>
@@ -3055,7 +3111,7 @@
     </row>
     <row r="77" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A77" s="51">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
@@ -3080,7 +3136,7 @@
     </row>
     <row r="78" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="53"/>
       <c r="C78" s="53"/>
@@ -3105,7 +3161,7 @@
     </row>
     <row r="79" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A79" s="51">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
@@ -3130,7 +3186,7 @@
     </row>
     <row r="80" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A80" s="51">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
@@ -3155,7 +3211,7 @@
     </row>
     <row r="81" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A81" s="51">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
@@ -3180,7 +3236,7 @@
     </row>
     <row r="82" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A82" s="51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
@@ -3205,7 +3261,7 @@
     </row>
     <row r="83" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A83" s="51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="53"/>
       <c r="C83" s="53"/>
@@ -3230,7 +3286,7 @@
     </row>
     <row r="84" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="53"/>
@@ -3255,7 +3311,7 @@
     </row>
     <row r="85" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="53"/>
@@ -3277,6 +3333,31 @@
       <c r="O85" s="50"/>
       <c r="P85" s="50"/>
       <c r="Q85" s="50"/>
+    </row>
+    <row r="86" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="51">
+        <v>6</v>
+      </c>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3302,10 +3383,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3426,20 +3507,20 @@
       <c r="B11" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
@@ -3448,20 +3529,20 @@
       <c r="B12" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
     </row>
     <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
@@ -3470,20 +3551,20 @@
       <c r="B13" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72">
@@ -3492,20 +3573,20 @@
       <c r="B14" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
@@ -3605,7 +3686,7 @@
       </c>
       <c r="C42" s="72"/>
       <c r="D42" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
@@ -3621,19 +3702,18 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="72"/>
     </row>
-    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3</v>
-      </c>
+    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.25">
       <c r="B43" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="D43" s="72" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F43" s="72" t="s">
         <v>114</v>
@@ -3642,16 +3722,16 @@
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I43" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -3660,56 +3740,75 @@
         <v>5</v>
       </c>
       <c r="N43" s="50"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="72"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>1+A43</f>
-        <v>4</v>
-      </c>
-      <c r="B44" s="72">
+        <v>3</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="49">
+        <v>20</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="50">
         <v>5</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="55">
-        <v>10</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="56"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="72"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ref="A45:A50" si="0">1+A44</f>
+        <f>1+A44</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="72">
         <v>5</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="72"/>
       <c r="D45" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="72"/>
       <c r="G45" s="72"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="117"/>
+      <c r="I45" s="55">
+        <v>10</v>
+      </c>
+      <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
@@ -3720,20 +3819,22 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="A46:A51" si="0">1+A45</f>
+        <v>5</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
+      <c r="D46" s="72" t="s">
+        <v>125</v>
+      </c>
       <c r="E46" s="72"/>
       <c r="F46" s="72"/>
       <c r="G46" s="72"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="109"/>
       <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
@@ -3742,205 +3843,187 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="72"/>
     </row>
-    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="72">
-        <v>10</v>
-      </c>
-      <c r="J47" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" s="72">
-        <v>5</v>
-      </c>
-      <c r="N47" s="128"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+        <v>127</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="50"/>
       <c r="Q47" s="72"/>
     </row>
-    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B48" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="129">
-        <v>20</v>
-      </c>
-      <c r="J48" s="129" t="s">
+      <c r="G48" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="72">
+        <v>10</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="130" t="s">
+      <c r="L48" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="129">
+      <c r="M48" s="72">
         <v>5</v>
       </c>
-      <c r="N48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="120"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+    </row>
+    <row r="49" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B49" s="72">
+        <v>8</v>
+      </c>
+      <c r="B49" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="121">
         <v>20</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-    </row>
-    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="121">
+        <v>5</v>
+      </c>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+    </row>
+    <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B50" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>130</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B50" s="72">
+        <v>20</v>
+      </c>
+      <c r="C50" s="72"/>
       <c r="D50" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="72">
-        <v>10</v>
-      </c>
-      <c r="J50" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="72">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="72"/>
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="72"/>
     </row>
-    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>1+A50</f>
-        <v>11</v>
-      </c>
-      <c r="B51" s="135">
-        <v>22040</v>
-      </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="129" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="129" t="s">
+      <c r="F51" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="129">
-        <v>20</v>
-      </c>
-      <c r="J51" s="129" t="s">
+      <c r="G51" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="72">
+        <v>10</v>
+      </c>
+      <c r="J51" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K51" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="130" t="s">
+      <c r="L51" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="129">
+      <c r="M51" s="72">
         <v>5</v>
       </c>
       <c r="N51" s="72"/>
@@ -3948,97 +4031,119 @@
       <c r="P51" s="72"/>
       <c r="Q51" s="72"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>1+A51</f>
-        <v>12</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="127">
+        <v>22040</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="121">
+        <v>20</v>
+      </c>
+      <c r="J52" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="121">
+        <v>5</v>
+      </c>
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="72"/>
     </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>13</v>
+        <f>1+A52</f>
+        <v>12</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="72"/>
-      <c r="D53" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="129">
-        <v>20</v>
-      </c>
-      <c r="J53" s="129" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="129">
-        <v>5</v>
-      </c>
+      <c r="D53" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
       <c r="Q53" s="72"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B54" s="72">
-        <v>70</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
+        <f t="shared" ref="A54:A55" si="1">1+A53</f>
+        <v>13</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="121">
+        <v>20</v>
+      </c>
+      <c r="J54" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="121">
+        <v>5</v>
+      </c>
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
       <c r="P54" s="72"/>
@@ -4046,11 +4151,16 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" s="72"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="72">
+        <v>70</v>
+      </c>
       <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
+      <c r="D55" s="72" t="s">
+        <v>125</v>
+      </c>
       <c r="E55" s="72"/>
       <c r="F55" s="72"/>
       <c r="G55" s="72"/>
@@ -4075,11 +4185,11 @@
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
       <c r="G56" s="72"/>
-      <c r="H56" s="119"/>
+      <c r="H56" s="72"/>
       <c r="I56" s="72"/>
       <c r="J56" s="72"/>
       <c r="K56" s="72"/>
-      <c r="L56" s="119"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
@@ -4096,11 +4206,11 @@
       <c r="E57" s="72"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
+      <c r="H57" s="111"/>
       <c r="I57" s="72"/>
       <c r="J57" s="72"/>
       <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
+      <c r="L57" s="111"/>
       <c r="M57" s="72"/>
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
@@ -4138,11 +4248,11 @@
       <c r="E59" s="72"/>
       <c r="F59" s="72"/>
       <c r="G59" s="72"/>
-      <c r="H59" s="119"/>
+      <c r="H59" s="72"/>
       <c r="I59" s="72"/>
       <c r="J59" s="72"/>
       <c r="K59" s="72"/>
-      <c r="L59" s="119"/>
+      <c r="L59" s="72"/>
       <c r="M59" s="72"/>
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
@@ -4159,11 +4269,11 @@
       <c r="E60" s="72"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="119"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="72"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="111"/>
       <c r="M60" s="72"/>
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
@@ -4181,9 +4291,9 @@
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
+      <c r="I61" s="111"/>
       <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
+      <c r="K61" s="111"/>
       <c r="L61" s="72"/>
       <c r="M61" s="72"/>
       <c r="N61" s="72"/>
@@ -4201,11 +4311,11 @@
       <c r="E62" s="72"/>
       <c r="F62" s="72"/>
       <c r="G62" s="72"/>
-      <c r="H62" s="119"/>
+      <c r="H62" s="72"/>
       <c r="I62" s="72"/>
-      <c r="J62" s="119"/>
+      <c r="J62" s="72"/>
       <c r="K62" s="72"/>
-      <c r="L62" s="119"/>
+      <c r="L62" s="72"/>
       <c r="M62" s="72"/>
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
@@ -4222,63 +4332,76 @@
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
-      <c r="H63" s="119"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
+      <c r="J63" s="111"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="119"/>
+      <c r="L63" s="111"/>
       <c r="M63" s="72"/>
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
       <c r="P63" s="72"/>
       <c r="Q63" s="72"/>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
-      <c r="H64" s="119"/>
+      <c r="H64" s="111"/>
       <c r="I64" s="72"/>
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="119"/>
+      <c r="L64" s="111"/>
       <c r="M64" s="72"/>
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
       <c r="P64" s="72"/>
       <c r="Q64" s="72"/>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
+    <row r="65" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="72"/>
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
+      <c r="L65" s="111"/>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
       <c r="Q65" s="72"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="H66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="L66" s="98"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -4292,6 +4415,9 @@
       <c r="A68">
         <v>1</v>
       </c>
+      <c r="H68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="L68" s="98"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -4303,8 +4429,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>6</v>
       </c>
     </row>
@@ -4330,10 +4461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q278"/>
+  <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -4553,7 +4684,7 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="8"/>
@@ -4569,19 +4700,18 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>3</v>
-      </c>
+    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E43" s="104" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>114</v>
@@ -4590,16 +4720,16 @@
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I43" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -4608,56 +4738,75 @@
         <v>5</v>
       </c>
       <c r="N43" s="50"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f>1+A43</f>
-        <v>4</v>
-      </c>
-      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="49">
+        <v>20</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="50">
         <v>5</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="55">
-        <v>10</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="56"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f t="shared" ref="A45:A50" si="0">1+A44</f>
+        <f>1+A44</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="8">
         <v>5</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="104"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="117"/>
+      <c r="I45" s="55">
+        <v>10</v>
+      </c>
+      <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
@@ -4668,20 +4817,22 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="A46:A51" si="0">1+A45</f>
+        <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E46" s="104"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="109"/>
       <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
@@ -4690,204 +4841,186 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="8">
-        <v>10</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" s="8">
-        <v>5</v>
-      </c>
-      <c r="N47" s="128"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="50"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B48" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="130" t="s">
+      <c r="F48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="130">
-        <v>20</v>
-      </c>
-      <c r="J48" s="130" t="s">
+      <c r="G48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="8">
+        <v>10</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="130" t="s">
+      <c r="L48" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="130">
+      <c r="M48" s="8">
         <v>5</v>
       </c>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="120"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B49" s="8">
+        <v>8</v>
+      </c>
+      <c r="B49" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="122">
         <v>20</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="122">
+        <v>5</v>
+      </c>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+    </row>
+    <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>130</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B50" s="8">
+        <v>20</v>
+      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="8">
-        <v>10</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="8">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E50" s="104"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f>1+A50</f>
-        <v>11</v>
-      </c>
-      <c r="B51" s="136">
-        <v>22040</v>
-      </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="130" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="130" t="s">
+      <c r="F51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="130">
-        <v>20</v>
-      </c>
-      <c r="J51" s="130" t="s">
+      <c r="G51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="8">
+        <v>10</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K51" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="130" t="s">
+      <c r="L51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="130">
+      <c r="M51" s="8">
         <v>5</v>
       </c>
       <c r="N51" s="8"/>
@@ -4895,93 +5028,117 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>1+A51</f>
-        <v>12</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="128">
+        <v>22040</v>
+      </c>
+      <c r="C52" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="122">
+        <v>20</v>
+      </c>
+      <c r="J52" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="122">
+        <v>5</v>
+      </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>13</v>
+        <f>1+A52</f>
+        <v>12</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="130">
-        <v>20</v>
-      </c>
-      <c r="J53" s="130" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="130">
-        <v>5</v>
-      </c>
+      <c r="D53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="104"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B54" s="8">
-        <v>70</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+        <f t="shared" ref="A54:A55" si="1">1+A53</f>
+        <v>13</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="122">
+        <v>20</v>
+      </c>
+      <c r="J54" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="122">
+        <v>5</v>
+      </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -4989,11 +5146,16 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>1</v>
-      </c>
-      <c r="B55" s="8"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="8">
+        <v>70</v>
+      </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E55" s="104"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5016,7 +5178,6 @@
       <c r="E56" s="104"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -5036,6 +5197,7 @@
       <c r="E57" s="104"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -5074,7 +5236,6 @@
       <c r="E59" s="104"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -5114,6 +5275,7 @@
       <c r="E61" s="104"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -5133,7 +5295,6 @@
       <c r="E62" s="104"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -5163,7 +5324,10 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5180,16 +5344,14 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
+    <row r="65" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="104"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5199,11 +5361,24 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
@@ -5215,6 +5390,7 @@
       <c r="A68" s="1">
         <v>1</v>
       </c>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -5226,33 +5402,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="H167" s="11"/>
-      <c r="I167" s="9"/>
+    <row r="167" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
     </row>
     <row r="168" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H168" s="11"/>
@@ -5290,29 +5467,28 @@
       <c r="H176" s="11"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+    <row r="177" spans="1:17" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="H177" s="11"/>
       <c r="I177" s="9"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
-      <c r="Q177" s="3"/>
     </row>
     <row r="178" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="10"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
     </row>
     <row r="179" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E179" s="3"/>
@@ -5809,24 +5985,29 @@
       <c r="H277" s="12"/>
       <c r="I277" s="10"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
+    <row r="278" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="E278" s="3"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
       <c r="H278" s="12"/>
       <c r="I278" s="10"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
+      <c r="P279" s="2"/>
+      <c r="Q279" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5845,10 +6026,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5978,10 +6159,10 @@
       <c r="B10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="76" t="s">
         <v>43</v>
       </c>
@@ -5993,10 +6174,10 @@
       <c r="B11" s="88">
         <v>43434</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="112"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="77" t="s">
         <v>47</v>
       </c>
@@ -6008,10 +6189,10 @@
       <c r="B12" s="89">
         <v>43488</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="65" t="s">
         <v>47</v>
       </c>
@@ -6023,10 +6204,10 @@
       <c r="B13" s="89">
         <v>43634</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="65" t="s">
         <v>47</v>
       </c>
@@ -6064,7 +6245,7 @@
       </c>
       <c r="C42" s="72"/>
       <c r="D42" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
@@ -6080,19 +6261,18 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="72"/>
     </row>
-    <row r="43" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3</v>
-      </c>
+    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.25">
       <c r="B43" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="D43" s="72" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F43" s="72" t="s">
         <v>114</v>
@@ -6101,16 +6281,16 @@
         <v>115</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I43" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>113</v>
@@ -6119,56 +6299,75 @@
         <v>5</v>
       </c>
       <c r="N43" s="50"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="72"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>1+A43</f>
-        <v>4</v>
-      </c>
-      <c r="B44" s="72">
+        <v>3</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="49">
+        <v>20</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="50">
         <v>5</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="55">
-        <v>10</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="56"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="72"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ref="A45:A50" si="0">1+A44</f>
+        <f>1+A44</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="72">
         <v>5</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="72"/>
       <c r="D45" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="72"/>
       <c r="G45" s="72"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="117"/>
+      <c r="I45" s="55">
+        <v>10</v>
+      </c>
+      <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="48"/>
       <c r="M45" s="50"/>
@@ -6179,20 +6378,22 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="A46:A51" si="0">1+A45</f>
+        <v>5</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
+      <c r="D46" s="72" t="s">
+        <v>125</v>
+      </c>
       <c r="E46" s="72"/>
       <c r="F46" s="72"/>
       <c r="G46" s="72"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="109"/>
       <c r="K46" s="56"/>
       <c r="L46" s="48"/>
       <c r="M46" s="50"/>
@@ -6201,205 +6402,187 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="72"/>
     </row>
-    <row r="47" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="72">
-        <v>10</v>
-      </c>
-      <c r="J47" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" s="72">
-        <v>5</v>
-      </c>
-      <c r="N47" s="128"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+        <v>127</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="50"/>
       <c r="Q47" s="72"/>
     </row>
-    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B48" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="129">
-        <v>20</v>
-      </c>
-      <c r="J48" s="129" t="s">
+      <c r="G48" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="72">
+        <v>10</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="130" t="s">
+      <c r="L48" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="129">
+      <c r="M48" s="72">
         <v>5</v>
       </c>
-      <c r="N48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-    </row>
-    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="120"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+    </row>
+    <row r="49" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B49" s="72">
+        <v>8</v>
+      </c>
+      <c r="B49" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="121">
         <v>20</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-    </row>
-    <row r="50" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="121">
+        <v>5</v>
+      </c>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+    </row>
+    <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B50" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>130</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B50" s="72">
+        <v>20</v>
+      </c>
+      <c r="C50" s="72"/>
       <c r="D50" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="72">
-        <v>10</v>
-      </c>
-      <c r="J50" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="72">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="72"/>
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="72"/>
     </row>
-    <row r="51" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>1+A50</f>
-        <v>11</v>
-      </c>
-      <c r="B51" s="135">
-        <v>22040</v>
-      </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="129" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="129" t="s">
+      <c r="F51" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="129">
-        <v>20</v>
-      </c>
-      <c r="J51" s="129" t="s">
+      <c r="G51" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="72">
+        <v>10</v>
+      </c>
+      <c r="J51" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K51" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="130" t="s">
+      <c r="L51" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="129">
+      <c r="M51" s="72">
         <v>5</v>
       </c>
       <c r="N51" s="72"/>
@@ -6407,97 +6590,119 @@
       <c r="P51" s="72"/>
       <c r="Q51" s="72"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>1+A51</f>
-        <v>12</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="127">
+        <v>22040</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="121">
+        <v>20</v>
+      </c>
+      <c r="J52" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="121">
+        <v>5</v>
+      </c>
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="72"/>
     </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ref="A53:A54" si="1">1+A52</f>
-        <v>13</v>
+        <f>1+A52</f>
+        <v>12</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="72"/>
-      <c r="D53" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="129">
-        <v>20</v>
-      </c>
-      <c r="J53" s="129" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="129">
-        <v>5</v>
-      </c>
+      <c r="D53" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
       <c r="Q53" s="72"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B54" s="72">
-        <v>70</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
+        <f t="shared" ref="A54:A55" si="1">1+A53</f>
+        <v>13</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="121">
+        <v>20</v>
+      </c>
+      <c r="J54" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="121">
+        <v>5</v>
+      </c>
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
       <c r="P54" s="72"/>
@@ -6505,11 +6710,16 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" s="72"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="72">
+        <v>70</v>
+      </c>
       <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
+      <c r="D55" s="72" t="s">
+        <v>125</v>
+      </c>
       <c r="E55" s="72"/>
       <c r="F55" s="72"/>
       <c r="G55" s="72"/>
@@ -6534,11 +6744,11 @@
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
       <c r="G56" s="72"/>
-      <c r="H56" s="119"/>
+      <c r="H56" s="72"/>
       <c r="I56" s="72"/>
       <c r="J56" s="72"/>
       <c r="K56" s="72"/>
-      <c r="L56" s="119"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
@@ -6555,11 +6765,11 @@
       <c r="E57" s="72"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
+      <c r="H57" s="111"/>
       <c r="I57" s="72"/>
       <c r="J57" s="72"/>
       <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
+      <c r="L57" s="111"/>
       <c r="M57" s="72"/>
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
@@ -6597,11 +6807,11 @@
       <c r="E59" s="72"/>
       <c r="F59" s="72"/>
       <c r="G59" s="72"/>
-      <c r="H59" s="119"/>
+      <c r="H59" s="72"/>
       <c r="I59" s="72"/>
       <c r="J59" s="72"/>
       <c r="K59" s="72"/>
-      <c r="L59" s="119"/>
+      <c r="L59" s="72"/>
       <c r="M59" s="72"/>
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
@@ -6618,11 +6828,11 @@
       <c r="E60" s="72"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="119"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="72"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="111"/>
       <c r="M60" s="72"/>
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
@@ -6640,9 +6850,9 @@
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
+      <c r="I61" s="111"/>
       <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
+      <c r="K61" s="111"/>
       <c r="L61" s="72"/>
       <c r="M61" s="72"/>
       <c r="N61" s="72"/>
@@ -6660,11 +6870,11 @@
       <c r="E62" s="72"/>
       <c r="F62" s="72"/>
       <c r="G62" s="72"/>
-      <c r="H62" s="119"/>
+      <c r="H62" s="72"/>
       <c r="I62" s="72"/>
-      <c r="J62" s="119"/>
+      <c r="J62" s="72"/>
       <c r="K62" s="72"/>
-      <c r="L62" s="119"/>
+      <c r="L62" s="72"/>
       <c r="M62" s="72"/>
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
@@ -6681,63 +6891,76 @@
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
-      <c r="H63" s="119"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
+      <c r="J63" s="111"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="119"/>
+      <c r="L63" s="111"/>
       <c r="M63" s="72"/>
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
       <c r="P63" s="72"/>
       <c r="Q63" s="72"/>
     </row>
-    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
-      <c r="H64" s="119"/>
+      <c r="H64" s="111"/>
       <c r="I64" s="72"/>
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="119"/>
+      <c r="L64" s="111"/>
       <c r="M64" s="72"/>
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
       <c r="P64" s="72"/>
       <c r="Q64" s="72"/>
     </row>
-    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
+    <row r="65" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="72"/>
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
+      <c r="L65" s="111"/>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
       <c r="Q65" s="72"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="H66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="L66" s="98"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -6751,6 +6974,9 @@
       <c r="A68">
         <v>1</v>
       </c>
+      <c r="H68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="L68" s="98"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -6762,8 +6988,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>6</v>
       </c>
     </row>
@@ -6797,9 +7028,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6852,25 +7086,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6891,9 +7115,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
+++ b/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="150">
   <si>
     <t>Failure mode</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>check on input data</t>
+  </si>
+  <si>
+    <t>developmen testing</t>
+  </si>
+  <si>
+    <t>req 70 - unit test</t>
+  </si>
+  <si>
+    <t>development testing</t>
+  </si>
+  <si>
+    <t>unit test</t>
   </si>
 </sst>
 </file>
@@ -1235,6 +1247,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1260,9 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,8 +1723,8 @@
   </sheetPr>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1749,14 +1761,14 @@
       <c r="G1" s="97"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="129" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="130"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -2160,7 +2172,7 @@
     </row>
     <row r="43" spans="1:18" ht="153" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="129" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="106" t="s">
@@ -2417,10 +2429,16 @@
       <c r="M49" s="55">
         <v>5</v>
       </c>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
+      <c r="N49" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="55" t="s">
+        <v>147</v>
+      </c>
       <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
+      <c r="Q49" s="55">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51">
@@ -2607,10 +2625,16 @@
       <c r="M54" s="55">
         <v>5</v>
       </c>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
+      <c r="N54" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="50">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
@@ -3386,7 +3410,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3507,20 +3531,20 @@
       <c r="B11" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
@@ -3529,20 +3553,20 @@
       <c r="B12" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
     </row>
     <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
@@ -3551,20 +3575,20 @@
       <c r="B13" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
     </row>
     <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72">
@@ -3573,20 +3597,20 @@
       <c r="B14" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
@@ -3954,10 +3978,16 @@
       <c r="M49" s="121">
         <v>5</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
+      <c r="N49" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="121" t="s">
+        <v>147</v>
+      </c>
       <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
+      <c r="Q49" s="121">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -4144,10 +4174,16 @@
       <c r="M54" s="121">
         <v>5</v>
       </c>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
+      <c r="N54" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="72" t="s">
+        <v>149</v>
+      </c>
       <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
+      <c r="Q54" s="72">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -4464,7 +4500,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -4952,10 +4988,16 @@
       <c r="M49" s="122">
         <v>5</v>
       </c>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
+      <c r="N49" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="122" t="s">
+        <v>147</v>
+      </c>
       <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
+      <c r="Q49" s="122">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -5139,10 +5181,16 @@
       <c r="M54" s="122">
         <v>5</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="N54" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="Q54" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -6029,7 +6077,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6159,10 +6207,10 @@
       <c r="B10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="76" t="s">
         <v>43</v>
       </c>
@@ -6174,10 +6222,10 @@
       <c r="B11" s="88">
         <v>43434</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="136"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="77" t="s">
         <v>47</v>
       </c>
@@ -6189,10 +6237,10 @@
       <c r="B12" s="89">
         <v>43488</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="65" t="s">
         <v>47</v>
       </c>
@@ -6204,10 +6252,10 @@
       <c r="B13" s="89">
         <v>43634</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="136"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="65" t="s">
         <v>47</v>
       </c>
@@ -6513,10 +6561,16 @@
       <c r="M49" s="121">
         <v>5</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
+      <c r="N49" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="121" t="s">
+        <v>147</v>
+      </c>
       <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
+      <c r="Q49" s="121">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -6703,10 +6757,16 @@
       <c r="M54" s="121">
         <v>5</v>
       </c>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
+      <c r="N54" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="72" t="s">
+        <v>149</v>
+      </c>
       <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
+      <c r="Q54" s="72">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -7028,12 +7088,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7086,15 +7143,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7115,16 +7182,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
+++ b/doc/01-software planning/dascombat-FRM4503-FMEA Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="160">
   <si>
     <t>Failure mode</t>
   </si>
@@ -483,6 +483,38 @@
   </si>
   <si>
     <t>unit test</t>
+  </si>
+  <si>
+    <t>Input format</t>
+  </si>
+  <si>
+    <t>wrong input</t>
+  </si>
+  <si>
+    <t>input misspecified</t>
+  </si>
+  <si>
+    <t>P:3
+D:1
+S:5</t>
+  </si>
+  <si>
+    <t>has to be controlled from the calling module, i.e. dasnormalize</t>
+  </si>
+  <si>
+    <t>unit test implemented</t>
+  </si>
+  <si>
+    <t>stops on exception</t>
+  </si>
+  <si>
+    <t>DAS API</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>system testing from calling module</t>
   </si>
 </sst>
 </file>
@@ -829,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1176,10 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1371,7 +1399,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>520976</xdr:rowOff>
+      <xdr:rowOff>208556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1721,10 +1749,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1770,8 @@
     <col min="11" max="11" width="9.6640625" style="15" customWidth="1"/>
     <col min="12" max="12" width="4.33203125" style="15" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="15" customWidth="1"/>
-    <col min="14" max="15" width="8.109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="23" customWidth="1"/>
     <col min="16" max="16" width="7.6640625" style="15" customWidth="1"/>
     <col min="17" max="17" width="10" style="15" customWidth="1"/>
     <col min="18" max="16384" width="9.109375" style="15"/>
@@ -1761,14 +1790,14 @@
       <c r="G1" s="97"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="130" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="131"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -2144,23 +2173,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="105">
         <v>2</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="106" t="s">
+        <v>150</v>
+      </c>
       <c r="D42" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
+        <v>151</v>
+      </c>
+      <c r="E42" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="49">
+        <v>15</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>154</v>
+      </c>
       <c r="K42" s="50"/>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
@@ -2170,9 +2213,11 @@
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" spans="1:18" ht="153" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="129" t="s">
+    <row r="43" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>2</v>
+      </c>
+      <c r="B43" s="128" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="106" t="s">
@@ -2208,10 +2253,16 @@
       <c r="M43" s="50">
         <v>5</v>
       </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
+      <c r="N43" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" s="50" t="s">
+        <v>155</v>
+      </c>
       <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
+      <c r="Q43" s="50">
+        <v>5</v>
+      </c>
       <c r="R43" s="50"/>
     </row>
     <row r="44" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,10 +2305,16 @@
       <c r="M44" s="50">
         <v>5</v>
       </c>
-      <c r="N44" s="50"/>
-      <c r="O44" s="48"/>
+      <c r="N44" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" s="50" t="s">
+        <v>155</v>
+      </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
+      <c r="Q44" s="50">
+        <v>5</v>
+      </c>
       <c r="R44" s="50"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2276,9 +2333,7 @@
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="55">
-        <v>10</v>
-      </c>
+      <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="48"/>
@@ -2291,7 +2346,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
-        <f t="shared" ref="A46:A51" si="0">1+A45</f>
+        <f t="shared" ref="A46:A49" si="0">1+A45</f>
         <v>5</v>
       </c>
       <c r="B46" s="108" t="s">
@@ -2316,218 +2371,227 @@
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B47" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
+      <c r="B47" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="117">
+        <v>10</v>
+      </c>
+      <c r="J47" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" s="119">
+        <v>5</v>
+      </c>
+      <c r="N47" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O47" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="119">
+        <v>5</v>
+      </c>
+      <c r="R47" s="102"/>
     </row>
     <row r="48" spans="1:18" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="51">
+      <c r="A48" s="114">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B48" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="117" t="s">
+      <c r="B48" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="117" t="s">
+      <c r="F48" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="118">
-        <v>10</v>
-      </c>
-      <c r="J48" s="118" t="s">
+      <c r="G48" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="55">
+        <v>20</v>
+      </c>
+      <c r="J48" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="K48" s="117" t="s">
+      <c r="K48" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L48" s="119" t="s">
+      <c r="L48" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="120">
+      <c r="M48" s="55">
         <v>5</v>
       </c>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="102"/>
-    </row>
-    <row r="49" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="115">
+      <c r="N48" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="O48" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="55" t="s">
+      <c r="B49" s="122">
+        <v>20</v>
+      </c>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+    </row>
+    <row r="50" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="51">
+        <v>9</v>
+      </c>
+      <c r="B50" s="125">
+        <v>22040</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E50" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F50" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G50" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="103" t="s">
+      <c r="H50" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="55">
+      <c r="I50" s="55">
         <v>20</v>
       </c>
-      <c r="J49" s="55" t="s">
+      <c r="J50" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="55" t="s">
+      <c r="K50" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L49" s="103" t="s">
+      <c r="L50" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="M49" s="55">
+      <c r="M50" s="55">
         <v>5</v>
       </c>
-      <c r="N49" s="55" t="s">
+      <c r="N50" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="O49" s="55" t="s">
+      <c r="O50" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55">
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B50" s="123">
-        <v>20</v>
-      </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>10</v>
+      </c>
+      <c r="B51" s="125">
+        <v>37</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-    </row>
-    <row r="51" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B51" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="118">
-        <v>10</v>
-      </c>
-      <c r="J51" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="M51" s="120">
-        <v>5</v>
-      </c>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
       <c r="P51" s="50"/>
       <c r="Q51" s="50"/>
     </row>
     <row r="52" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
-        <f>1+A51</f>
         <v>11</v>
       </c>
-      <c r="B52" s="126">
-        <v>22040</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>123</v>
+      <c r="B52" s="105">
+        <v>38</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>157</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>114</v>
@@ -2536,118 +2600,107 @@
         <v>119</v>
       </c>
       <c r="H52" s="103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I52" s="55">
-        <v>20</v>
-      </c>
-      <c r="J52" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M52" s="55">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="50"/>
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
-        <f>1+A52</f>
+        <f t="shared" ref="A53:A54" si="1">1+A52</f>
         <v>12</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="55">
+        <v>20</v>
+      </c>
+      <c r="J53" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="55">
+        <v>5</v>
+      </c>
+      <c r="N53" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="51">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B54" s="105">
+        <v>70</v>
+      </c>
+      <c r="C54" s="105"/>
+      <c r="D54" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-    </row>
-    <row r="54" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="51">
-        <f t="shared" ref="A54:A55" si="1">1+A53</f>
-        <v>13</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="I54" s="55">
-        <v>20</v>
-      </c>
-      <c r="J54" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="M54" s="55">
-        <v>5</v>
-      </c>
-      <c r="N54" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="O54" s="50" t="s">
-        <v>149</v>
-      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
       <c r="P54" s="50"/>
-      <c r="Q54" s="50">
-        <v>5</v>
-      </c>
+      <c r="Q54" s="50"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B55" s="105">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B55" s="105"/>
       <c r="C55" s="105"/>
-      <c r="D55" s="107" t="s">
-        <v>125</v>
-      </c>
+      <c r="D55" s="107"/>
       <c r="E55" s="107"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107"/>
@@ -2756,11 +2809,11 @@
       <c r="E60" s="107"/>
       <c r="F60" s="107"/>
       <c r="G60" s="107"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="50"/>
       <c r="N60" s="50"/>
       <c r="O60" s="50"/>
@@ -2777,11 +2830,11 @@
       <c r="E61" s="107"/>
       <c r="F61" s="107"/>
       <c r="G61" s="107"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="48"/>
-      <c r="L61" s="50"/>
+      <c r="L61" s="48"/>
       <c r="M61" s="50"/>
       <c r="N61" s="50"/>
       <c r="O61" s="50"/>
@@ -2800,7 +2853,7 @@
       <c r="G62" s="107"/>
       <c r="H62" s="48"/>
       <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="48"/>
       <c r="L62" s="48"/>
       <c r="M62" s="50"/>
@@ -2821,7 +2874,7 @@
       <c r="G63" s="107"/>
       <c r="H63" s="48"/>
       <c r="I63" s="49"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
       <c r="M63" s="50"/>
@@ -2830,10 +2883,8 @@
       <c r="P63" s="50"/>
       <c r="Q63" s="50"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="51">
-        <v>1</v>
-      </c>
+    <row r="64" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
       <c r="B64" s="105"/>
       <c r="C64" s="105"/>
       <c r="D64" s="107"/>
@@ -2851,8 +2902,10 @@
       <c r="P64" s="50"/>
       <c r="Q64" s="50"/>
     </row>
-    <row r="65" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+    <row r="65" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51">
+        <v>1</v>
+      </c>
       <c r="B65" s="105"/>
       <c r="C65" s="105"/>
       <c r="D65" s="107"/>
@@ -2870,20 +2923,20 @@
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
     </row>
-    <row r="66" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>1</v>
       </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="48"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
       <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="47"/>
       <c r="L66" s="48"/>
       <c r="M66" s="50"/>
       <c r="N66" s="50"/>
@@ -2912,7 +2965,7 @@
       <c r="P67" s="50"/>
       <c r="Q67" s="50"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>1</v>
       </c>
@@ -2922,11 +2975,15 @@
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
       <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
+      <c r="H68" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="I68" s="49"/>
-      <c r="J68" s="48"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="47"/>
-      <c r="L68" s="48"/>
+      <c r="L68" s="48" t="s">
+        <v>25</v>
+      </c>
       <c r="M68" s="50"/>
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
@@ -2985,7 +3042,7 @@
     </row>
     <row r="71" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="53"/>
@@ -3010,7 +3067,7 @@
     </row>
     <row r="72" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="53"/>
@@ -3035,7 +3092,7 @@
     </row>
     <row r="73" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
@@ -3060,7 +3117,7 @@
     </row>
     <row r="74" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="53"/>
@@ -3085,7 +3142,7 @@
     </row>
     <row r="75" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="53"/>
@@ -3110,7 +3167,7 @@
     </row>
     <row r="76" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="53"/>
@@ -3135,7 +3192,7 @@
     </row>
     <row r="77" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A77" s="51">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
@@ -3160,7 +3217,7 @@
     </row>
     <row r="78" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B78" s="53"/>
       <c r="C78" s="53"/>
@@ -3185,7 +3242,7 @@
     </row>
     <row r="79" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A79" s="51">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
@@ -3210,7 +3267,7 @@
     </row>
     <row r="80" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A80" s="51">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
@@ -3235,7 +3292,7 @@
     </row>
     <row r="81" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A81" s="51">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
@@ -3260,7 +3317,7 @@
     </row>
     <row r="82" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A82" s="51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
@@ -3285,7 +3342,7 @@
     </row>
     <row r="83" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A83" s="51">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" s="53"/>
       <c r="C83" s="53"/>
@@ -3310,7 +3367,7 @@
     </row>
     <row r="84" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="53"/>
@@ -3335,7 +3392,7 @@
     </row>
     <row r="85" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="53"/>
@@ -3357,31 +3414,6 @@
       <c r="O85" s="50"/>
       <c r="P85" s="50"/>
       <c r="Q85" s="50"/>
-    </row>
-    <row r="86" spans="1:17" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="51">
-        <v>6</v>
-      </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3409,8 +3441,8 @@
   </sheetPr>
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3531,20 +3563,20 @@
       <c r="B11" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
@@ -3553,20 +3585,20 @@
       <c r="B12" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
     </row>
     <row r="13" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
@@ -3575,20 +3607,20 @@
       <c r="B13" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72">
@@ -3597,20 +3629,20 @@
       <c r="B14" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
@@ -3701,7 +3733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3726,7 +3758,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="72"/>
     </row>
-    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72" t="s">
         <v>122</v>
       </c>
@@ -3914,7 +3946,7 @@
       <c r="G48" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="111" t="s">
+      <c r="H48" s="110" t="s">
         <v>116</v>
       </c>
       <c r="I48" s="72">
@@ -3926,13 +3958,13 @@
       <c r="K48" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="L48" s="111" t="s">
+      <c r="L48" s="110" t="s">
         <v>113</v>
       </c>
       <c r="M48" s="72">
         <v>5</v>
       </c>
-      <c r="N48" s="120"/>
+      <c r="N48" s="119"/>
       <c r="O48" s="72"/>
       <c r="P48" s="72"/>
       <c r="Q48" s="72"/>
@@ -3942,50 +3974,50 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="121" t="s">
+      <c r="E49" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="121" t="s">
+      <c r="F49" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="121" t="s">
+      <c r="G49" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="122" t="s">
+      <c r="H49" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="121">
+      <c r="I49" s="120">
         <v>20</v>
       </c>
-      <c r="J49" s="121" t="s">
+      <c r="J49" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L49" s="122" t="s">
+      <c r="L49" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M49" s="121">
+      <c r="M49" s="120">
         <v>5</v>
       </c>
-      <c r="N49" s="121" t="s">
+      <c r="N49" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="O49" s="121" t="s">
+      <c r="O49" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121">
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120">
         <v>5</v>
       </c>
     </row>
@@ -4004,11 +4036,11 @@
       <c r="E50" s="72"/>
       <c r="F50" s="72"/>
       <c r="G50" s="72"/>
-      <c r="H50" s="111"/>
+      <c r="H50" s="110"/>
       <c r="I50" s="72"/>
       <c r="J50" s="72"/>
       <c r="K50" s="72"/>
-      <c r="L50" s="111"/>
+      <c r="L50" s="110"/>
       <c r="M50" s="72"/>
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
@@ -4038,7 +4070,7 @@
       <c r="G51" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H51" s="111" t="s">
+      <c r="H51" s="110" t="s">
         <v>116</v>
       </c>
       <c r="I51" s="72">
@@ -4050,7 +4082,7 @@
       <c r="K51" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="111" t="s">
+      <c r="L51" s="110" t="s">
         <v>113</v>
       </c>
       <c r="M51" s="72">
@@ -4066,40 +4098,40 @@
         <f>1+A51</f>
         <v>11</v>
       </c>
-      <c r="B52" s="127">
+      <c r="B52" s="126">
         <v>22040</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="121" t="s">
+      <c r="D52" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="121" t="s">
+      <c r="E52" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="121" t="s">
+      <c r="F52" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="121" t="s">
+      <c r="G52" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="122" t="s">
+      <c r="H52" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="121">
+      <c r="I52" s="120">
         <v>20</v>
       </c>
-      <c r="J52" s="121" t="s">
+      <c r="J52" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="121" t="s">
+      <c r="K52" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="122" t="s">
+      <c r="L52" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M52" s="121">
+      <c r="M52" s="120">
         <v>5</v>
       </c>
       <c r="N52" s="72"/>
@@ -4144,34 +4176,34 @@
       <c r="C54" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="121" t="s">
+      <c r="E54" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="121" t="s">
+      <c r="F54" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="121" t="s">
+      <c r="G54" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="122" t="s">
+      <c r="H54" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="121">
+      <c r="I54" s="120">
         <v>20</v>
       </c>
-      <c r="J54" s="121" t="s">
+      <c r="J54" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="121" t="s">
+      <c r="K54" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L54" s="122" t="s">
+      <c r="L54" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M54" s="121">
+      <c r="M54" s="120">
         <v>5</v>
       </c>
       <c r="N54" s="72" t="s">
@@ -4242,11 +4274,11 @@
       <c r="E57" s="72"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
-      <c r="H57" s="111"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="72"/>
       <c r="J57" s="72"/>
       <c r="K57" s="72"/>
-      <c r="L57" s="111"/>
+      <c r="L57" s="110"/>
       <c r="M57" s="72"/>
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
@@ -4305,11 +4337,11 @@
       <c r="E60" s="72"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
-      <c r="H60" s="111"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="72"/>
       <c r="J60" s="72"/>
       <c r="K60" s="72"/>
-      <c r="L60" s="111"/>
+      <c r="L60" s="110"/>
       <c r="M60" s="72"/>
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
@@ -4327,9 +4359,9 @@
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="72"/>
-      <c r="I61" s="111"/>
+      <c r="I61" s="110"/>
       <c r="J61" s="72"/>
-      <c r="K61" s="111"/>
+      <c r="K61" s="110"/>
       <c r="L61" s="72"/>
       <c r="M61" s="72"/>
       <c r="N61" s="72"/>
@@ -4368,11 +4400,11 @@
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
-      <c r="H63" s="111"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="72"/>
-      <c r="J63" s="111"/>
+      <c r="J63" s="110"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="111"/>
+      <c r="L63" s="110"/>
       <c r="M63" s="72"/>
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
@@ -4389,11 +4421,11 @@
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
-      <c r="H64" s="111"/>
+      <c r="H64" s="110"/>
       <c r="I64" s="72"/>
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="111"/>
+      <c r="L64" s="110"/>
       <c r="M64" s="72"/>
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
@@ -4407,11 +4439,11 @@
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
-      <c r="H65" s="111"/>
+      <c r="H65" s="110"/>
       <c r="I65" s="72"/>
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="111"/>
+      <c r="L65" s="110"/>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
@@ -4499,8 +4531,8 @@
   </sheetPr>
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="C36" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -4711,7 +4743,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -4736,7 +4768,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>122</v>
       </c>
@@ -4942,7 +4974,7 @@
       <c r="M48" s="8">
         <v>5</v>
       </c>
-      <c r="N48" s="120"/>
+      <c r="N48" s="119"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -4952,50 +4984,50 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B49" s="122" t="s">
+      <c r="B49" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="122" t="s">
+      <c r="D49" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="122" t="s">
+      <c r="E49" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="122" t="s">
+      <c r="F49" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="122" t="s">
+      <c r="G49" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="122" t="s">
+      <c r="H49" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="122">
+      <c r="I49" s="121">
         <v>20</v>
       </c>
-      <c r="J49" s="122" t="s">
+      <c r="J49" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="122" t="s">
+      <c r="K49" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="L49" s="122" t="s">
+      <c r="L49" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M49" s="122">
+      <c r="M49" s="121">
         <v>5</v>
       </c>
-      <c r="N49" s="122" t="s">
+      <c r="N49" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="O49" s="122" t="s">
+      <c r="O49" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122">
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121">
         <v>5</v>
       </c>
     </row>
@@ -5075,40 +5107,40 @@
         <f>1+A51</f>
         <v>11</v>
       </c>
-      <c r="B52" s="128">
+      <c r="B52" s="127">
         <v>22040</v>
       </c>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="122" t="s">
+      <c r="D52" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="122" t="s">
+      <c r="E52" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="122" t="s">
+      <c r="F52" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="122" t="s">
+      <c r="G52" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="122" t="s">
+      <c r="H52" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="122">
+      <c r="I52" s="121">
         <v>20</v>
       </c>
-      <c r="J52" s="122" t="s">
+      <c r="J52" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="122" t="s">
+      <c r="K52" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="122" t="s">
+      <c r="L52" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M52" s="122">
+      <c r="M52" s="121">
         <v>5</v>
       </c>
       <c r="N52" s="8"/>
@@ -5151,34 +5183,34 @@
       <c r="C54" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="D54" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="122" t="s">
+      <c r="E54" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="122" t="s">
+      <c r="F54" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="122" t="s">
+      <c r="H54" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="122">
+      <c r="I54" s="121">
         <v>20</v>
       </c>
-      <c r="J54" s="122" t="s">
+      <c r="J54" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="122" t="s">
+      <c r="K54" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="L54" s="122" t="s">
+      <c r="L54" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M54" s="122">
+      <c r="M54" s="121">
         <v>5</v>
       </c>
       <c r="N54" s="8" t="s">
@@ -6076,8 +6108,8 @@
   </sheetPr>
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6207,10 +6239,10 @@
       <c r="B10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="76" t="s">
         <v>43</v>
       </c>
@@ -6222,10 +6254,10 @@
       <c r="B11" s="88">
         <v>43434</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="137"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="77" t="s">
         <v>47</v>
       </c>
@@ -6237,10 +6269,10 @@
       <c r="B12" s="89">
         <v>43488</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="137"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="65" t="s">
         <v>47</v>
       </c>
@@ -6252,10 +6284,10 @@
       <c r="B13" s="89">
         <v>43634</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="137"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="65" t="s">
         <v>47</v>
       </c>
@@ -6284,7 +6316,7 @@
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -6309,7 +6341,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="72"/>
     </row>
-    <row r="43" spans="1:17" ht="183.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72" t="s">
         <v>122</v>
       </c>
@@ -6497,7 +6529,7 @@
       <c r="G48" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="111" t="s">
+      <c r="H48" s="110" t="s">
         <v>116</v>
       </c>
       <c r="I48" s="72">
@@ -6509,13 +6541,13 @@
       <c r="K48" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="L48" s="111" t="s">
+      <c r="L48" s="110" t="s">
         <v>113</v>
       </c>
       <c r="M48" s="72">
         <v>5</v>
       </c>
-      <c r="N48" s="120"/>
+      <c r="N48" s="119"/>
       <c r="O48" s="72"/>
       <c r="P48" s="72"/>
       <c r="Q48" s="72"/>
@@ -6525,50 +6557,50 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="121" t="s">
+      <c r="E49" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="121" t="s">
+      <c r="F49" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="121" t="s">
+      <c r="G49" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="122" t="s">
+      <c r="H49" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="121">
+      <c r="I49" s="120">
         <v>20</v>
       </c>
-      <c r="J49" s="121" t="s">
+      <c r="J49" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L49" s="122" t="s">
+      <c r="L49" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M49" s="121">
+      <c r="M49" s="120">
         <v>5</v>
       </c>
-      <c r="N49" s="121" t="s">
+      <c r="N49" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="O49" s="121" t="s">
+      <c r="O49" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121">
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120">
         <v>5</v>
       </c>
     </row>
@@ -6587,11 +6619,11 @@
       <c r="E50" s="72"/>
       <c r="F50" s="72"/>
       <c r="G50" s="72"/>
-      <c r="H50" s="111"/>
+      <c r="H50" s="110"/>
       <c r="I50" s="72"/>
       <c r="J50" s="72"/>
       <c r="K50" s="72"/>
-      <c r="L50" s="111"/>
+      <c r="L50" s="110"/>
       <c r="M50" s="72"/>
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
@@ -6621,7 +6653,7 @@
       <c r="G51" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H51" s="111" t="s">
+      <c r="H51" s="110" t="s">
         <v>116</v>
       </c>
       <c r="I51" s="72">
@@ -6633,7 +6665,7 @@
       <c r="K51" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="111" t="s">
+      <c r="L51" s="110" t="s">
         <v>113</v>
       </c>
       <c r="M51" s="72">
@@ -6649,40 +6681,40 @@
         <f>1+A51</f>
         <v>11</v>
       </c>
-      <c r="B52" s="127">
+      <c r="B52" s="126">
         <v>22040</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="121" t="s">
+      <c r="D52" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="121" t="s">
+      <c r="E52" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="121" t="s">
+      <c r="F52" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="121" t="s">
+      <c r="G52" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="122" t="s">
+      <c r="H52" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="121">
+      <c r="I52" s="120">
         <v>20</v>
       </c>
-      <c r="J52" s="121" t="s">
+      <c r="J52" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="121" t="s">
+      <c r="K52" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="122" t="s">
+      <c r="L52" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M52" s="121">
+      <c r="M52" s="120">
         <v>5</v>
       </c>
       <c r="N52" s="72"/>
@@ -6727,34 +6759,34 @@
       <c r="C54" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="121" t="s">
+      <c r="E54" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="121" t="s">
+      <c r="F54" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="121" t="s">
+      <c r="G54" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="122" t="s">
+      <c r="H54" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="121">
+      <c r="I54" s="120">
         <v>20</v>
       </c>
-      <c r="J54" s="121" t="s">
+      <c r="J54" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="121" t="s">
+      <c r="K54" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="L54" s="122" t="s">
+      <c r="L54" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="M54" s="121">
+      <c r="M54" s="120">
         <v>5</v>
       </c>
       <c r="N54" s="72" t="s">
@@ -6825,11 +6857,11 @@
       <c r="E57" s="72"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
-      <c r="H57" s="111"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="72"/>
       <c r="J57" s="72"/>
       <c r="K57" s="72"/>
-      <c r="L57" s="111"/>
+      <c r="L57" s="110"/>
       <c r="M57" s="72"/>
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
@@ -6888,11 +6920,11 @@
       <c r="E60" s="72"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
-      <c r="H60" s="111"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="72"/>
       <c r="J60" s="72"/>
       <c r="K60" s="72"/>
-      <c r="L60" s="111"/>
+      <c r="L60" s="110"/>
       <c r="M60" s="72"/>
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
@@ -6910,9 +6942,9 @@
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="72"/>
-      <c r="I61" s="111"/>
+      <c r="I61" s="110"/>
       <c r="J61" s="72"/>
-      <c r="K61" s="111"/>
+      <c r="K61" s="110"/>
       <c r="L61" s="72"/>
       <c r="M61" s="72"/>
       <c r="N61" s="72"/>
@@ -6951,11 +6983,11 @@
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
-      <c r="H63" s="111"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="72"/>
-      <c r="J63" s="111"/>
+      <c r="J63" s="110"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="111"/>
+      <c r="L63" s="110"/>
       <c r="M63" s="72"/>
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
@@ -6972,11 +7004,11 @@
       <c r="E64" s="72"/>
       <c r="F64" s="72"/>
       <c r="G64" s="72"/>
-      <c r="H64" s="111"/>
+      <c r="H64" s="110"/>
       <c r="I64" s="72"/>
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="111"/>
+      <c r="L64" s="110"/>
       <c r="M64" s="72"/>
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
@@ -6990,11 +7022,11 @@
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
-      <c r="H65" s="111"/>
+      <c r="H65" s="110"/>
       <c r="I65" s="72"/>
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="111"/>
+      <c r="L65" s="110"/>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
@@ -7088,9 +7120,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7143,25 +7178,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7182,9 +7207,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF31402-5615-4A2C-86ED-EA44CCAB9198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C326E-5B3D-4183-AAD6-A302594DA8E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>